--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1094,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>App Delivery</t>
+          <t>Backup and Disaster Recovery</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1151,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Backup and Disaster Recovery</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,15 +1178,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1242,7 +1211,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implement for emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
+          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1259,19 +1228,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1292,13 +1261,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model for management groups, subscriptions, resource groups and resources</t>
+          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,19 +1278,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1342,13 +1311,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
+          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1359,19 +1328,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1392,13 +1361,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
+          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,19 +1378,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1442,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
+          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1459,19 +1428,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1492,13 +1461,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
+          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1509,19 +1478,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1542,13 +1511,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
+          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1592,7 +1561,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
+          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1609,19 +1578,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1642,7 +1611,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1659,19 +1628,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1692,7 +1661,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1709,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1742,7 +1711,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
+          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1764,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1792,7 +1761,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
+          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1809,19 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1842,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
+          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1859,19 +1828,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1892,7 +1861,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
+          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1909,19 +1878,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1932,17 +1901,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
+          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1959,19 +1928,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1992,7 +1961,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
+          <t>Enforce or appended resource tags through Azure Policy</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2009,19 +1978,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2042,7 +2011,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Enforce or appended resource tags through Azure Policy</t>
+          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2059,19 +2028,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2092,7 +2061,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
+          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2121,7 +2090,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,7 +2111,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
+          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2171,7 +2140,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2192,7 +2161,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
+          <t>Enforce no subscriptions are placed under the root management group</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2209,19 +2178,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2242,7 +2206,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Enforce no subscriptions are placed under the root management group</t>
+          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2259,14 +2223,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2287,7 +2251,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
+          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2304,7 +2268,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2312,7 +2276,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2333,13 +2297,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
+          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2358,7 +2322,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2379,13 +2343,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2396,7 +2360,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2404,7 +2368,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2425,13 +2389,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
+          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2442,15 +2406,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2471,7 +2439,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
+          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2488,19 +2456,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2521,13 +2489,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2538,19 +2506,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2571,13 +2539,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2588,19 +2556,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2621,13 +2589,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2638,19 +2606,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2671,7 +2639,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2688,19 +2656,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,23 +2679,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2738,19 +2706,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2771,13 +2735,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2788,7 +2752,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2796,7 +2760,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2812,12 +2776,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2834,15 +2798,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2863,7 +2831,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2878,21 +2846,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2913,7 +2873,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,12 +2888,21 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2954,7 +2923,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2983,7 +2952,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3004,7 +2973,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3021,19 +2990,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3054,7 +3023,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3071,19 +3040,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3104,7 +3073,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3121,19 +3090,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3154,7 +3123,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3171,19 +3140,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3204,13 +3173,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3221,19 +3190,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3219,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3236,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3244,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3265,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3282,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3310,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3327,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3335,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3356,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3373,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3401,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3418,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3446,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3463,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3491,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3508,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3536,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3553,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3581,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3598,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3643,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3671,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3688,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3716,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3733,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3741,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3752,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,7 +3779,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3822,7 +3787,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3943,7 +3908,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Your application gateways should be deployed in subnets with IP prefixes equal or larger than /26</t>
+          <t>Ensure you are using the Standard SKU for your Azure Load Balancers</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3960,19 +3925,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3993,14 +3954,10 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
-        </is>
-      </c>
+          <t>Your application gateways should be deployed in subnets with IP prefixes equal or larger than /26</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4014,7 +3971,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
@@ -4026,7 +3983,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,10 +4004,14 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="n"/>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="inlineStr">
+        <is>
+          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
+        </is>
+      </c>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4069,14 +4030,14 @@
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4058,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4126,7 +4087,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,7 +4108,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4164,7 +4125,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4137,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4158,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,7 +4175,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
@@ -4226,7 +4187,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4208,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4264,19 +4225,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4258,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4319,14 +4280,14 @@
       </c>
       <c r="I74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4347,13 +4308,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,15 +4325,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4393,7 +4358,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4410,7 +4375,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4418,7 +4383,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4439,7 +4404,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4456,7 +4421,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4464,7 +4429,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4485,13 +4450,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,7 +4467,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4510,7 +4475,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4531,13 +4496,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4548,7 +4513,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4556,7 +4521,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4577,13 +4542,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4594,7 +4559,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4602,7 +4567,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4623,13 +4588,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
+          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4640,7 +4605,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4648,7 +4613,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4664,18 +4629,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4686,7 +4651,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4694,7 +4659,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4715,13 +4680,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4732,19 +4697,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4760,18 +4721,18 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4782,19 +4743,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4815,13 +4776,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4832,15 +4793,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4861,13 +4826,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4878,7 +4843,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4886,7 +4851,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4924,7 +4889,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4932,7 +4897,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4953,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
+          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4970,7 +4935,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4978,7 +4943,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4999,13 +4964,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
+          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5016,19 +4981,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5049,7 +5010,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5066,19 +5027,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5099,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5116,15 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5145,13 +5110,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5162,7 +5127,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5170,7 +5135,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5186,18 +5151,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5208,19 +5173,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5241,14 +5202,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
-        </is>
-      </c>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5262,7 +5219,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5274,7 +5231,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5295,10 +5252,14 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="n"/>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
+        </is>
+      </c>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5324,7 +5285,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5345,13 +5306,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5362,15 +5323,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5391,7 +5356,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
+          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5408,7 +5373,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5416,7 +5381,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5437,13 +5402,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5454,19 +5419,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5487,7 +5448,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5504,7 +5465,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5516,7 +5477,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5537,7 +5498,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5554,7 +5515,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5566,7 +5527,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5587,7 +5548,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5604,19 +5565,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5637,13 +5598,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5654,19 +5615,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5687,13 +5648,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5704,7 +5665,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
@@ -5716,7 +5677,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5737,7 +5698,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5754,7 +5715,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5766,7 +5727,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5787,7 +5748,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5804,7 +5765,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5816,7 +5777,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5837,7 +5798,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5854,7 +5815,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5866,7 +5827,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5887,7 +5848,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5904,15 +5865,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5933,13 +5898,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5950,7 +5915,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5958,7 +5923,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5974,12 +5939,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5996,19 +5961,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6029,13 +5990,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6058,7 +6019,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6079,13 +6040,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6108,7 +6069,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6129,7 +6090,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6146,19 +6107,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6179,13 +6140,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6196,7 +6157,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
@@ -6208,7 +6169,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6229,7 +6190,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6246,19 +6207,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6279,13 +6240,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6296,14 +6257,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6324,13 +6290,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6341,19 +6307,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6369,18 +6330,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6391,14 +6352,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6419,7 +6385,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6436,7 +6402,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6444,7 +6410,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6465,13 +6431,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6482,19 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6515,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6532,7 +6493,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6544,7 +6505,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6565,13 +6526,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6594,7 +6555,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6615,13 +6576,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6632,19 +6593,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6665,13 +6626,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6682,7 +6643,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
@@ -6694,7 +6655,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6715,13 +6676,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6737,14 +6698,14 @@
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6765,7 +6726,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6782,19 +6743,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6815,7 +6776,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6832,14 +6793,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6860,7 +6826,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6877,14 +6843,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6905,7 +6871,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6929,7 +6895,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6950,7 +6916,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6967,14 +6933,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6995,7 +6961,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7012,14 +6978,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7035,12 +7001,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7057,19 +7023,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7090,13 +7051,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7107,19 +7068,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7140,7 +7101,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7162,14 +7123,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7190,7 +7151,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7212,14 +7173,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7240,7 +7201,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7269,7 +7230,7 @@
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7285,18 +7246,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
+          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7307,14 +7268,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7335,7 +7301,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7352,14 +7318,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7380,13 +7346,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7397,14 +7363,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7425,7 +7391,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7442,19 +7408,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7475,7 +7436,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7492,19 +7453,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7525,7 +7486,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7540,7 +7501,11 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7550,7 +7515,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7571,7 +7536,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7586,11 +7551,7 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H142" s="15" t="n"/>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7600,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7621,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7643,14 +7604,14 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7666,12 +7627,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7688,19 +7649,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7721,7 +7682,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7738,14 +7699,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7766,13 +7732,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7790,7 +7756,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7811,13 +7777,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7829,18 +7795,13 @@
       <c r="H147" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7861,7 +7822,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7878,14 +7839,19 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7906,7 +7872,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7923,14 +7889,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7951,7 +7917,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7968,14 +7934,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7996,7 +7962,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8013,14 +7979,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8041,7 +8007,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8058,14 +8024,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8086,13 +8052,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8103,14 +8069,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8121,17 +8087,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8148,14 +8114,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8176,13 +8142,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8193,14 +8159,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8211,7 +8177,7 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
@@ -8221,13 +8187,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8238,14 +8204,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8266,13 +8232,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8283,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8311,13 +8277,13 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8328,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8356,7 +8322,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8373,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8401,7 +8367,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8418,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8446,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8463,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8491,7 +8457,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8508,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8536,13 +8502,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8553,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8581,7 +8547,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8598,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8626,7 +8592,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8643,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8671,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8688,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8716,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8733,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8756,18 +8722,18 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8778,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8806,13 +8772,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8823,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8851,7 +8817,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8868,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8896,7 +8862,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8920,7 +8886,7 @@
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8941,7 +8907,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,7 +8931,7 @@
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8986,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9003,14 +8969,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9031,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9048,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9076,14 +9042,10 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D175" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
+      <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9097,14 +9059,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9125,10 +9087,14 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9142,14 +9108,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9170,7 +9136,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9187,14 +9153,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9215,7 +9181,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9232,14 +9198,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9260,14 +9226,10 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9281,14 +9243,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9304,18 +9266,22 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9326,14 +9292,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9354,13 +9320,13 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9371,14 +9337,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9399,7 +9365,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9416,14 +9382,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9444,7 +9410,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9468,7 +9434,7 @@
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9489,7 +9455,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9513,7 +9479,7 @@
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9534,7 +9500,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9558,7 +9524,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9579,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9603,7 +9569,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9624,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9641,14 +9607,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9669,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9686,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9714,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9731,14 +9697,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9759,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9776,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9804,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9828,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9844,12 +9810,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9866,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9860,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9939,7 +9905,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9956,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9950,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10008,7 +9974,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10029,7 +9995,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10046,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10074,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10091,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10136,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10164,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10181,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10209,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10233,7 +10199,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10244,23 +10210,23 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10271,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10294,12 +10260,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10316,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10344,7 +10310,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10361,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10377,15 +10343,45 @@
       <c r="P203" s="25" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="21" t="n"/>
-      <c r="B204" s="21" t="n"/>
-      <c r="C204" s="21" t="n"/>
+      <c r="A204" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B204" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C204" s="21" t="inlineStr">
+        <is>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+        </is>
+      </c>
       <c r="D204" s="21" t="n"/>
-      <c r="E204" s="21" t="n"/>
+      <c r="E204" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G204" s="21" t="n"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
-      <c r="L204" s="25" t="n"/>
+      <c r="L204" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M204" s="25" t="n"/>
       <c r="N204" s="25" t="n"/>
       <c r="O204" s="25" t="n"/>
@@ -11808,20 +11804,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -11833,123 +11927,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -8222,17 +8222,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t xml:space="preserve">Resiliency </t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8249,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8267,23 +8267,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t xml:space="preserve">Resiliency </t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8294,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8312,23 +8312,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t xml:space="preserve">Resiliency </t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8357,23 +8357,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t xml:space="preserve">Resiliency </t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Leverage Azure Virtual Machine Scale sets to scale up and down based on the load.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8384,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8429,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8457,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8519,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,13 +8547,13 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8564,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,13 +8592,13 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8609,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8654,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8699,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8744,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8767,18 +8767,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8789,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8812,12 +8812,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8857,18 +8857,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8879,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8902,12 +8902,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8924,14 +8924,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8952,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8976,7 +8976,7 @@
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9066,7 +9066,7 @@
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,14 +9087,10 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9108,14 +9104,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9136,7 +9132,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9160,7 +9156,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9181,13 +9177,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9198,14 +9194,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9226,7 +9222,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9243,14 +9239,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9271,12 +9267,12 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D180" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
         </is>
       </c>
       <c r="E180" s="21" t="inlineStr">
@@ -9292,14 +9288,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9315,18 +9311,18 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9337,14 +9333,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9360,12 +9356,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9382,14 +9378,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9405,12 +9401,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9427,14 +9423,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9450,15 +9446,19 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9472,14 +9472,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9500,13 +9500,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9517,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9562,14 +9562,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9614,7 +9614,7 @@
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9652,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9704,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9742,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9855,12 +9855,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9900,12 +9900,12 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9945,12 +9945,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9967,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9990,12 +9990,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10012,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10192,14 +10192,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10255,23 +10255,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10282,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10300,7 +10300,7 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
@@ -10310,13 +10310,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10327,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10345,7 +10345,7 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
@@ -10355,13 +10355,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10372,14 +10372,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10388,60 +10388,180 @@
       <c r="P204" s="25" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
-      <c r="A205" s="21" t="n"/>
-      <c r="B205" s="21" t="n"/>
-      <c r="C205" s="21" t="n"/>
+      <c r="A205" s="21" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B205" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C205" s="21" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D205" s="21" t="n"/>
-      <c r="E205" s="21" t="n"/>
+      <c r="E205" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G205" s="21" t="n"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
-      <c r="L205" s="25" t="n"/>
+      <c r="L205" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M205" s="25" t="n"/>
       <c r="N205" s="25" t="n"/>
       <c r="O205" s="25" t="n"/>
       <c r="P205" s="25" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="n"/>
-      <c r="B206" s="21" t="n"/>
-      <c r="C206" s="21" t="n"/>
+      <c r="A206" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B206" s="21" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C206" s="21" t="inlineStr">
+        <is>
+          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
+        </is>
+      </c>
       <c r="D206" s="21" t="n"/>
-      <c r="E206" s="21" t="n"/>
+      <c r="E206" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G206" s="21" t="n"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
-      <c r="L206" s="25" t="n"/>
+      <c r="L206" s="25" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M206" s="25" t="n"/>
       <c r="N206" s="25" t="n"/>
       <c r="O206" s="25" t="n"/>
       <c r="P206" s="25" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" s="21" t="n"/>
-      <c r="B207" s="21" t="n"/>
-      <c r="C207" s="21" t="n"/>
+      <c r="A207" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B207" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C207" s="21" t="inlineStr">
+        <is>
+          <t>Secure transfer to storage accounts should be enabled</t>
+        </is>
+      </c>
       <c r="D207" s="21" t="n"/>
-      <c r="E207" s="21" t="n"/>
+      <c r="E207" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G207" s="21" t="n"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
-      <c r="L207" s="25" t="n"/>
+      <c r="L207" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M207" s="25" t="n"/>
       <c r="N207" s="25" t="n"/>
       <c r="O207" s="25" t="n"/>
       <c r="P207" s="25" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" s="21" t="n"/>
-      <c r="B208" s="21" t="n"/>
-      <c r="C208" s="21" t="n"/>
+      <c r="A208" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B208" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C208" s="21" t="inlineStr">
+        <is>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+        </is>
+      </c>
       <c r="D208" s="21" t="n"/>
-      <c r="E208" s="21" t="n"/>
+      <c r="E208" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G208" s="21" t="n"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
-      <c r="L208" s="25" t="n"/>
+      <c r="L208" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M208" s="25" t="n"/>
       <c r="N208" s="25" t="n"/>
       <c r="O208" s="25" t="n"/>
@@ -11928,7 +12048,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11943,7 +12063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -12151,6 +12271,13 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
+          <t>Resiliency</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Backup and Disaster Recovery</t>
         </is>
       </c>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -3626,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5156,13 +5156,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>Consider the limit of routes per route table (400).</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5173,7 +5173,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5181,7 +5181,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5197,18 +5197,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5219,19 +5219,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5252,14 +5248,10 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
-        </is>
-      </c>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5273,7 +5265,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5285,7 +5277,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5306,10 +5298,14 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="n"/>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5335,7 +5331,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5356,13 +5352,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5373,15 +5369,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
+          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5419,7 +5419,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5427,7 +5427,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5448,13 +5448,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5465,19 +5465,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5498,7 +5494,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5515,7 +5511,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5527,7 +5523,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5548,7 +5544,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5565,7 +5561,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5577,7 +5573,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5598,7 +5594,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5615,19 +5611,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5648,13 +5644,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5665,19 +5661,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5698,13 +5694,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5715,7 +5711,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5727,7 +5723,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5748,7 +5744,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5765,7 +5761,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5777,7 +5773,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5798,7 +5794,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5815,7 +5811,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5827,7 +5823,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5848,7 +5844,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5865,7 +5861,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
@@ -5877,7 +5873,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5898,7 +5894,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5915,15 +5911,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5944,13 +5944,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5961,7 +5961,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5969,7 +5969,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5985,12 +5985,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6007,19 +6007,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6040,13 +6036,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6069,7 +6065,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6090,13 +6086,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6119,7 +6115,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6140,7 +6136,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6157,19 +6153,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6190,13 +6186,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6207,7 +6203,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
@@ -6219,7 +6215,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6240,7 +6236,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6257,19 +6253,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6290,13 +6286,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6307,14 +6303,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6335,13 +6336,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6352,19 +6353,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6380,18 +6376,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6402,15 +6398,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6448,14 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6476,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6493,19 +6493,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6526,13 +6522,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6543,7 +6539,7 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
@@ -6555,7 +6551,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6576,13 +6572,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6605,7 +6601,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6626,13 +6622,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6643,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6676,13 +6672,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6693,7 +6689,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
@@ -6705,7 +6701,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6726,13 +6722,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6748,14 +6744,14 @@
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6776,7 +6772,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6793,19 +6789,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6826,7 +6822,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6843,14 +6839,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6871,7 +6872,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6888,14 +6889,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6916,7 +6917,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6940,7 +6941,7 @@
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6961,7 +6962,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6978,14 +6979,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7006,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7023,14 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7046,12 +7047,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7068,19 +7069,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7101,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7118,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7151,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7173,14 +7169,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7201,7 +7197,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7223,14 +7219,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7251,7 +7247,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7280,7 +7276,7 @@
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7296,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
+          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7318,14 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7346,7 +7347,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7363,14 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7391,13 +7392,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7408,14 +7409,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7436,7 +7437,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7453,19 +7454,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7486,7 +7482,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7503,19 +7499,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7536,7 +7532,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7551,7 +7547,11 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7561,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7597,11 +7597,7 @@
         </is>
       </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H143" s="15" t="n"/>
       <c r="I143" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7611,7 +7607,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7632,7 +7628,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7654,14 +7650,14 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7677,12 +7673,12 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7699,19 +7695,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7732,7 +7728,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7749,14 +7745,19 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7777,13 +7778,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7801,7 +7802,7 @@
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7822,13 +7823,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7840,18 +7841,13 @@
       <c r="H148" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7872,7 +7868,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7889,14 +7885,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7917,7 +7918,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7934,14 +7935,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7962,7 +7963,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7979,14 +7980,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8007,7 +8008,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8024,14 +8025,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8052,7 +8053,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8069,14 +8070,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8097,13 +8098,13 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8114,14 +8115,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8132,17 +8133,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8159,14 +8160,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8187,13 +8188,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8204,14 +8205,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8222,23 +8223,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Resiliency </t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8249,14 +8250,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8277,7 +8278,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8294,14 +8295,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8322,13 +8323,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8340,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8362,12 +8363,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Virtual Machine Scale sets to scale up and down based on the load.</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8384,14 +8385,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8402,23 +8403,23 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t xml:space="preserve">Resiliency </t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Leverage Azure Virtual Machine Scale sets to scale up and down based on the load.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8429,14 +8430,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8458,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8475,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,13 +8503,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8519,14 +8520,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,7 +8548,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8564,14 +8565,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,7 +8593,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8609,14 +8610,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,7 +8638,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8654,14 +8655,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,7 +8683,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8699,14 +8700,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,13 +8728,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8744,14 +8745,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8772,7 +8773,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8789,14 +8790,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8817,7 +8818,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8835,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8862,13 +8863,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8880,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8907,13 +8908,13 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8924,14 +8925,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8947,18 +8948,18 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8969,14 +8970,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8998,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9015,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9043,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9059,14 +9060,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,7 +9088,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9111,7 +9112,7 @@
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9132,7 +9133,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9156,7 +9157,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9177,13 +9178,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9194,14 +9195,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9222,13 +9223,13 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9239,14 +9240,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9267,14 +9268,10 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9288,14 +9285,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9316,10 +9313,14 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9333,14 +9334,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9361,7 +9362,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9378,14 +9379,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9406,7 +9407,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9423,14 +9424,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9451,14 +9452,10 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9472,14 +9469,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9495,18 +9492,22 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
-        </is>
-      </c>
-      <c r="D185" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D185" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9518,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,13 +9546,13 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9562,14 +9563,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9591,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9607,14 +9608,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9636,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,7 +9660,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9681,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9705,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9726,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9749,7 +9750,7 @@
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9771,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9795,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9816,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9833,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9860,7 +9861,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9878,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9905,7 +9906,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9923,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9950,7 +9951,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9968,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9995,7 +9996,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10019,7 +10020,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10035,12 +10036,12 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10058,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10086,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10103,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10131,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10148,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10176,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10199,7 +10200,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10221,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10238,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10265,7 +10266,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10282,14 +10283,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10310,7 +10311,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10327,14 +10328,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10355,7 +10356,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10372,14 +10373,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10400,7 +10401,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10424,7 +10425,7 @@
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10435,23 +10436,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Security, Governance and Compliance </t>
+          <t>Security, Governance and Compliance</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10462,14 +10463,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10485,12 +10486,12 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10507,14 +10508,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10535,7 +10536,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10552,14 +10553,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10568,15 +10569,45 @@
       <c r="P208" s="25" t="n"/>
     </row>
     <row r="209">
-      <c r="A209" s="21" t="n"/>
-      <c r="B209" s="21" t="n"/>
-      <c r="C209" s="21" t="n"/>
+      <c r="A209" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Security, Governance and Compliance </t>
+        </is>
+      </c>
+      <c r="B209" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C209" s="21" t="inlineStr">
+        <is>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+        </is>
+      </c>
       <c r="D209" s="21" t="n"/>
-      <c r="E209" s="21" t="n"/>
+      <c r="E209" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G209" s="21" t="n"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
-      <c r="L209" s="25" t="n"/>
+      <c r="L209" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M209" s="25" t="n"/>
       <c r="N209" s="25" t="n"/>
       <c r="O209" s="25" t="n"/>
@@ -12048,7 +12079,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F210" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>How Many Azure AD Tenants do you manage?</t>
+          <t>Use one Entra tenant for managing your Azure resources, unless you have a clear regulatory or business requirement for multi-tenants.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/multitenant/considerations/tenancy-models</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/considerations-recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1316,7 +1316,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1362,7 +1362,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1408,7 +1408,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1500,7 +1500,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1546,7 +1546,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1638,7 +1638,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/mca-section-invoice</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -2235,7 +2235,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2281,7 +2281,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2327,12 +2327,12 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
@@ -2473,10 +2473,10 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
@@ -3219,12 +3219,12 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
@@ -3269,12 +3269,12 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
@@ -3319,10 +3319,9 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
@@ -3636,7 +3635,7 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7570,7 +7569,7 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
@@ -9821,7 +9820,7 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
@@ -9866,7 +9865,7 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
@@ -9911,7 +9910,7 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
@@ -9956,7 +9955,7 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
@@ -10001,7 +10000,7 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
@@ -10046,7 +10045,7 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
@@ -10091,7 +10090,7 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
@@ -10136,7 +10135,7 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
@@ -10181,7 +10180,7 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
@@ -10226,7 +10225,7 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
@@ -10271,7 +10270,7 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
@@ -10316,7 +10315,7 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
@@ -11884,13 +11883,13 @@
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11901,7 +11900,7 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
@@ -11929,13 +11928,13 @@
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
       <c r="E238" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11946,14 +11945,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11974,13 +11973,13 @@
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11991,14 +11990,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12014,12 +12013,12 @@
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>Enable Endpoint Protection on IaaS Servers.</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12036,14 +12035,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12059,18 +12058,18 @@
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12081,14 +12080,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12104,18 +12103,18 @@
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>Secure privileged access</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>Separate privledged admin accounts for Azure administrative tasks.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12126,15 +12125,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12150,18 +12148,18 @@
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12172,14 +12170,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12195,18 +12193,18 @@
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12217,14 +12215,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,45 +12231,135 @@
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="n"/>
-      <c r="B245" s="21" t="n"/>
-      <c r="C245" s="21" t="n"/>
+      <c r="A245" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B245" s="21" t="inlineStr">
+        <is>
+          <t>Secure privileged access</t>
+        </is>
+      </c>
+      <c r="C245" s="21" t="inlineStr">
+        <is>
+          <t>Separate privledged admin accounts for Azure administrative tasks.</t>
+        </is>
+      </c>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="n"/>
+      <c r="E245" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G245" s="21" t="n"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+        </is>
+      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="n"/>
+      <c r="L245" s="25" t="inlineStr">
+        <is>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+        </is>
+      </c>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="n"/>
-      <c r="B246" s="21" t="n"/>
-      <c r="C246" s="21" t="n"/>
+      <c r="A246" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
+          <t>Service enablement framework</t>
+        </is>
+      </c>
+      <c r="C246" s="21" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="n"/>
+      <c r="E246" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G246" s="21" t="n"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="n"/>
+      <c r="L246" s="25" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="n"/>
-      <c r="B247" s="21" t="n"/>
-      <c r="C247" s="21" t="n"/>
+      <c r="A247" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B247" s="21" t="inlineStr">
+        <is>
+          <t>Service enablement framework</t>
+        </is>
+      </c>
+      <c r="C247" s="21" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="n"/>
+      <c r="E247" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G247" s="21" t="n"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="n"/>
+      <c r="L247" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13173,7 +13261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F245" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet not supported by application rules.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>If using virtual network service endpoints, filter egress FQDNs on an NVA to prevent data exfiltration.</t>
+          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Azure AD Tenants</t>
+          <t>Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1105,17 +1105,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Azure AD Tenants</t>
+          <t>Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Ensure you have a Multi-Tenant Automation approach to managing your Azure AD Tenants</t>
+          <t>Ensure you have a Multi-Tenant Automation approach to managing your Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1151,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Azure AD Tenants</t>
+          <t>Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1243,7 +1243,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1335,7 +1335,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use departments and accounts to map your organization's structure to your enrollment hierarchy can help with separating billing.</t>
+          <t>Use departments and accounts to map your organization's structure to your enrollment hierarchy which can help with separating billing.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Ensure that Accounts are configured to be of the type 'Work and School Account'</t>
+          <t>Ensure that Accounts are configured to be of the type 'Work or School Account</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1473,7 +1473,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Enable both DA View Charges and AO View Charges on your EA Enrollments to allowers users with the correct perms review Cost and Billing Data.</t>
+          <t>Enable both DA View Charges and AO View Charges on your EA Enrollments to allow users with the correct perms review Cost and Billing Data.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1519,7 +1519,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1611,12 +1611,12 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Cloud Agreement</t>
+          <t>Microsoft Customer Agreement</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1657,12 +1657,12 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Cloud Agreement</t>
+          <t>Microsoft Customer Agreement</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
@@ -1703,12 +1703,12 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Cloud Agreement</t>
+          <t>Microsoft Customer Agreement</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
@@ -1749,12 +1749,12 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Cloud Agreement</t>
+          <t>Microsoft Customer Agreement</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1795,17 +1795,17 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Microsoft Entra ID and Hybrid Identity</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
+          <t>Use managed identities instead of service principals for authentication to Azure services</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1822,15 +1822,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1841,17 +1845,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage.</t>
+          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1872,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1880,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1887,23 +1891,23 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Implement an emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1914,15 +1918,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I26" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,17 +1941,17 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Integrate Microsoft Entra ID logs with the platform-central Azure Monitor. Azure Monitor allows for a single source of truth around log and monitoring data in Azure, giving organizations a cloud native options to meet requirements around log collection and retention.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1960,14 +1968,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1978,23 +1986,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
+          <t>Enforce a RBAC model that aligns to your cloud operating model. Scope and Assign across Management Groups and Subscriptions.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2005,14 +2013,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2023,17 +2036,17 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Enforce Microsoft Entra ID conditional-access policies for any user with rights to Azure environments</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2050,14 +2063,19 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2068,23 +2086,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2113,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2113,24 +2136,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2144,14 +2163,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2162,17 +2186,17 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Enforce Microsoft Entra ID Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2189,15 +2213,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2208,23 +2236,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2235,15 +2263,19 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2254,17 +2286,17 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
+          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2281,15 +2313,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2305,18 +2341,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Active Directory and Hybrid Identity</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use managed identities instead of service principals for authentication to Azure services</t>
+          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2327,19 +2363,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2355,12 +2391,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Azure AD</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
+          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2377,15 +2413,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I36" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+        </is>
+      </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2406,13 +2446,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Implement an emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
+          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2423,19 +2463,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2456,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Integrate Azure AD logs with the platform-central Azure Monitor. Azure Monitor allows for a single source of truth around log and monitoring data in Azure, giving organizations a cloud native options to meet requirements around log collection and retention.</t>
+          <t>If AD on Windows server in use, are the resources in Azure using the correct domain controller?</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2473,15 +2513,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2502,13 +2546,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model that aligns to your cloud operating model. Scope and Assign across Management Groups and Subscriptions.</t>
+          <t>Consider using Microsoft Entra ID Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2519,19 +2563,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2552,13 +2596,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Enforce Azure AD conditional-access policies for any user with rights to Azure environments</t>
+          <t>Avoid using on-premises synced accounts for Microsoft Entra ID role assignments.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2569,19 +2613,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2597,18 +2641,18 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Landing zones</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Enforce multi-factor authentication for any user with rights to the Azure environments</t>
+          <t>Configure Identity (ADDS) network segmentation through the use of a virtual Network and peer back to the hub. Providing authentication inside application landing zone (legacy).</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2619,19 +2663,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2647,12 +2691,12 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Landing zones</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Enforce centralized and delegated responsibilities to manage resources deployed inside the landing zone, based on role and security requirements</t>
+          <t xml:space="preserve">Use Azure RBAC to manage data plane access to resources, if possible. E.G - Data Operations across Key Vault, Storage Account and Database Services. </t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2669,19 +2713,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2697,12 +2741,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Landing zones</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Enforce Azure AD Privileged Identity Management (PIM) to establish zero standing access and least privilege</t>
+          <t>Use Microsoft Entra ID PIM access reviews to periodically validate resource entitlements.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2719,19 +2763,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2742,17 +2782,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Naming and tagging</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
+          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2769,19 +2809,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2792,17 +2828,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
+          <t>Enforce reasonably flat management group hierarchy with no more than four levels.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2819,19 +2855,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2842,17 +2878,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
+          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2869,19 +2905,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2892,17 +2928,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2919,19 +2955,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2942,17 +2978,17 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
+          <t>Enforce a dedicated connectivity subscription in the Connectivity management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2969,19 +3005,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2992,17 +3028,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
+          <t>Enforce no subscriptions are placed under the root management group</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3019,19 +3055,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3042,17 +3073,17 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows server in use, can all required resources access correct domain controller?</t>
+          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3069,19 +3100,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3092,17 +3119,17 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure AD Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
+          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3119,19 +3146,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3142,23 +3165,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Identity</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
+          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3169,19 +3192,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3192,23 +3211,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Landing zones</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Configure Identity (ADDS) network segmentation through the use of a virtual Network and peer back to the hub. Providing authentication inside application landing zone (legacy).</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription quotas and the impact they have on provision resources for a given subscription.</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3219,19 +3238,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3242,23 +3256,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Landing zones</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure RBAC to manage data plane access to resources, if possible. E.G - Data Operations across Keyvault, Storage Account and Database Services. </t>
+          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3269,19 +3283,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3292,23 +3306,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Identity and Access Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Landing zones</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Use Azure AD PIM access reviews to periodically validate resource entitlements.</t>
+          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3319,14 +3333,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3337,23 +3356,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3364,14 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3382,23 +3406,23 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3409,14 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3427,17 +3456,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Indentity management group, to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3454,14 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3472,17 +3506,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3499,14 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3517,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3544,19 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3567,17 +3601,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3592,12 +3626,21 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="n"/>
+      <c r="H61" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3608,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
+          <t>Ensure you are using Application Gateway v2 SKU</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3635,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3658,17 +3701,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Ensure you are using the Standard SKU for your Azure Load Balancers</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3685,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3708,17 +3747,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t>Your application gateways should be deployed in subnets with IP prefixes equal or larger than /26</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3735,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3758,20 +3797,24 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="n"/>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="inlineStr">
+        <is>
+          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
+        </is>
+      </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3785,19 +3828,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3808,17 +3851,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3835,19 +3878,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3858,17 +3901,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3885,19 +3928,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3908,23 +3951,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3935,15 +3978,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3954,23 +4001,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3981,15 +4028,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4000,23 +4051,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>If users only need access to internal applications, has Microsoft Entra ID Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4027,15 +4078,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4046,17 +4101,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4073,15 +4128,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4092,23 +4151,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4119,7 +4178,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4127,7 +4186,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4138,23 +4197,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4165,7 +4224,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4173,7 +4232,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4184,23 +4243,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4211,7 +4270,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4219,7 +4278,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4230,23 +4289,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4257,7 +4316,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4265,7 +4324,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4276,17 +4335,17 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4303,7 +4362,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4311,7 +4370,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4322,23 +4381,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4349,7 +4408,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4357,7 +4416,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4368,23 +4427,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Operational complliance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4395,7 +4454,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4403,7 +4462,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4414,27 +4473,23 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Operational complliance</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4445,7 +4500,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4453,7 +4508,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4464,17 +4519,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4491,7 +4546,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4499,7 +4554,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4510,17 +4565,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4537,7 +4592,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4545,7 +4600,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4556,23 +4611,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4583,15 +4638,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4602,23 +4661,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4629,15 +4688,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4648,17 +4711,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS servers.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4675,7 +4738,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4683,7 +4746,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4694,17 +4757,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4721,7 +4784,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4729,7 +4792,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4740,23 +4803,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Virtual Machine Scale sets to scale up and down based on the load.</t>
+          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4767,7 +4830,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4775,7 +4838,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4791,18 +4854,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4813,7 +4876,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4821,7 +4884,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4837,12 +4900,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4859,19 +4922,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4887,12 +4950,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Ensure you are using Application Gateway v2 SKU</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4909,19 +4972,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4937,12 +5000,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Ensure you are using the Standard SKU for your Azure Load Balancers</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4959,7 +5022,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4967,7 +5030,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4983,12 +5046,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Your application gateways should be deployed in subnets with IP prefixes equal or larger than /26</t>
+          <t>Consider the limit of routes per route table (400).</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5005,19 +5068,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5033,22 +5092,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
-        </is>
-      </c>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5059,19 +5114,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5087,12 +5138,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5109,19 +5160,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5137,15 +5188,19 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="n"/>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
+        </is>
+      </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5159,19 +5214,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5187,12 +5242,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5209,19 +5264,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5237,12 +5292,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5259,19 +5314,15 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5287,18 +5338,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5309,19 +5360,15 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5337,12 +5384,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5359,19 +5406,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5387,18 +5434,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5409,15 +5456,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5433,18 +5484,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5455,15 +5506,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5479,18 +5534,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5501,15 +5556,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5525,18 +5584,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5547,15 +5606,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5571,12 +5634,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5593,15 +5656,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5617,18 +5684,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5639,15 +5706,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5663,18 +5734,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5685,15 +5756,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5709,18 +5784,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5731,15 +5806,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5755,18 +5834,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5777,7 +5856,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5785,7 +5864,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5801,18 +5880,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5823,15 +5902,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5847,12 +5930,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5869,19 +5952,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5897,18 +5980,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5919,7 +6002,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
@@ -5931,7 +6014,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5947,12 +6030,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5969,14 +6052,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5992,12 +6080,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6014,15 +6102,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6038,18 +6130,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6060,15 +6152,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6084,12 +6180,12 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6106,7 +6202,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6114,7 +6210,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6130,18 +6226,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6152,19 +6248,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6180,12 +6276,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6202,19 +6298,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6230,12 +6321,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6252,14 +6343,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6275,18 +6366,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Consider the limit of routes per route table (400).</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6297,15 +6388,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6321,18 +6416,18 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6343,14 +6438,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6366,18 +6466,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6388,19 +6488,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6416,19 +6516,15 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
-        </is>
-      </c>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+        </is>
+      </c>
+      <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -6442,19 +6538,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6470,18 +6566,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6492,19 +6588,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6520,12 +6616,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6542,15 +6638,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6566,12 +6666,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6588,15 +6688,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6612,18 +6716,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6634,19 +6738,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6662,18 +6762,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6684,19 +6784,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6712,18 +6807,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6734,19 +6829,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6762,18 +6852,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6784,19 +6874,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6812,12 +6897,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6834,19 +6919,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6862,18 +6942,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6884,19 +6964,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6912,12 +6992,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -6934,19 +7014,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -6962,12 +7042,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -6984,7 +7064,7 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6996,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7012,12 +7092,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7034,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7062,18 +7142,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7084,14 +7164,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7107,12 +7192,12 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7129,19 +7214,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7157,18 +7237,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7179,19 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7207,18 +7282,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7229,19 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7257,18 +7327,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7279,19 +7349,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7307,12 +7377,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7329,19 +7399,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7357,12 +7427,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7377,21 +7447,17 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
+      <c r="H140" s="15" t="n"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7407,18 +7473,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7429,14 +7495,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7452,18 +7523,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7474,19 +7545,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7502,12 +7573,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7524,14 +7595,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7547,12 +7623,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7569,14 +7645,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7592,18 +7668,18 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7614,19 +7690,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7642,12 +7713,12 @@
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7664,7 +7735,7 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7676,7 +7747,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7692,18 +7763,18 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7714,19 +7785,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7742,12 +7808,12 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7764,19 +7830,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7792,18 +7853,18 @@
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7814,19 +7875,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7842,18 +7898,18 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7864,19 +7920,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7892,18 +7943,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7914,19 +7965,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7942,12 +7988,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7964,14 +8010,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7982,17 +8028,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8009,14 +8055,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8027,23 +8073,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8054,14 +8100,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8072,17 +8118,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8099,14 +8145,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8117,17 +8163,17 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8144,14 +8190,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8162,17 +8208,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8189,19 +8235,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8212,23 +8253,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8239,19 +8280,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8262,23 +8298,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8289,19 +8325,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8312,17 +8343,17 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8370,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8362,17 +8388,17 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8389,19 +8415,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8412,23 +8433,23 @@
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8439,14 +8460,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8457,23 +8478,23 @@
     <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8484,14 +8505,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8502,17 +8523,17 @@
     <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8529,14 +8550,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8547,23 +8568,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8574,19 +8595,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8597,17 +8613,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8624,19 +8640,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8647,17 +8658,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8672,17 +8683,16 @@
         </is>
       </c>
       <c r="G167" s="21" t="n"/>
-      <c r="H167" s="15" t="n"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H167" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8693,17 +8703,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8720,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8743,17 +8748,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8770,19 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8793,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,19 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8843,17 +8838,17 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8888,23 +8883,27 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8915,14 +8914,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8933,17 +8932,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,19 +8959,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,17 +8977,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9010,14 +9004,19 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,23 +9027,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9055,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,17 +9072,17 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
+          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9100,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,17 +9117,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
+          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9145,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9163,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9190,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9208,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9235,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9253,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9280,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9298,17 +9297,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9325,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9343,23 +9342,23 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
       <c r="E182" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9370,14 +9369,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9388,23 +9392,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9413,16 +9417,11 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
-        </is>
-      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9433,23 +9432,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9460,14 +9459,19 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9478,23 +9482,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9505,14 +9509,19 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9523,23 +9532,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9550,14 +9559,19 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9568,17 +9582,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9595,14 +9609,19 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,17 +9632,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9640,14 +9659,19 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9658,17 +9682,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9685,14 +9709,19 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9703,17 +9732,17 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9730,14 +9759,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9748,17 +9777,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9775,14 +9804,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9793,23 +9822,23 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9820,14 +9849,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9838,23 +9867,23 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
       <c r="E193" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9865,14 +9894,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9883,23 +9912,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9910,14 +9939,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9928,23 +9957,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9955,14 +9984,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9973,17 +10002,17 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Include unit tests for IaC and application code as part of your build process.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10000,14 +10029,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10018,23 +10047,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10045,14 +10074,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10063,23 +10092,23 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10090,14 +10119,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10108,23 +10137,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10135,14 +10164,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10153,23 +10182,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10180,14 +10209,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,20 +10227,24 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E201" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -10225,14 +10258,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10243,23 +10276,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Development Strategy</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10270,14 +10303,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10288,23 +10321,23 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10315,14 +10348,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10333,23 +10366,23 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Naming and tagging</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>It is recommended to follow Microsoft Best Practice Naming Standards</t>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10360,14 +10393,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10378,23 +10411,23 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Enforce reasonably flat management group hierarchy with no more than four levels.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10405,19 +10438,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,23 +10456,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Enforce or appended resource tags through Azure Policy</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10455,19 +10483,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10478,17 +10501,17 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10505,19 +10528,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10528,17 +10546,17 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10555,19 +10573,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10578,17 +10591,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10605,19 +10618,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10628,23 +10636,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Enforce no subscriptions are placed under the root management group</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10655,14 +10663,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10673,17 +10681,17 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10700,14 +10708,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10718,17 +10726,17 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10745,14 +10753,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10763,23 +10771,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10790,14 +10798,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10808,17 +10816,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10835,14 +10843,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10853,23 +10861,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10880,19 +10888,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10903,23 +10906,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10930,19 +10933,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10953,17 +10951,17 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10980,19 +10978,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11003,23 +10996,23 @@
     <row r="218">
       <c r="A218" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11030,19 +11023,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11053,17 +11041,17 @@
     <row r="219">
       <c r="A219" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
@@ -11080,19 +11068,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11103,17 +11086,17 @@
     <row r="220">
       <c r="A220" s="21" t="inlineStr">
         <is>
-          <t>Resource Organization</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11130,19 +11113,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11158,12 +11136,12 @@
       </c>
       <c r="B221" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11180,14 +11158,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11203,12 +11181,12 @@
       </c>
       <c r="B222" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
@@ -11225,14 +11203,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11248,18 +11226,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11270,14 +11248,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11293,18 +11271,18 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11315,14 +11293,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11338,18 +11316,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11360,14 +11338,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11383,18 +11361,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11405,14 +11383,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11428,18 +11406,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Enable Endpoint Protection on IaaS Servers.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11450,14 +11428,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11473,12 +11451,12 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
@@ -11495,14 +11473,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11518,12 +11496,12 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11540,14 +11518,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11563,18 +11541,18 @@
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11585,14 +11563,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11608,18 +11586,18 @@
       </c>
       <c r="B231" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
       <c r="E231" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -11630,14 +11608,14 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11653,18 +11631,18 @@
       </c>
       <c r="B232" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Secure privileged access</t>
         </is>
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
       <c r="E232" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11675,14 +11653,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11698,12 +11676,12 @@
       </c>
       <c r="B233" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
@@ -11720,14 +11698,14 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -11743,12 +11721,12 @@
       </c>
       <c r="B234" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
@@ -11765,14 +11743,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -11783,23 +11761,23 @@
     <row r="235">
       <c r="A235" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B235" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11810,14 +11788,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -11828,23 +11806,23 @@
     <row r="236">
       <c r="A236" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B236" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
       <c r="E236" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11855,14 +11833,14 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -11873,23 +11851,23 @@
     <row r="237">
       <c r="A237" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B237" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
+          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11900,14 +11878,14 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -11918,17 +11896,17 @@
     <row r="238">
       <c r="A238" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B238" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
+          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
@@ -11945,14 +11923,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11963,23 +11941,23 @@
     <row r="239">
       <c r="A239" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B239" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
+          <t>Include unit tests for IaC and application code as part of your build process.</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11990,14 +11968,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12008,17 +11986,17 @@
     <row r="240">
       <c r="A240" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>Enable Endpoint Protection on IaaS Servers.</t>
+          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12035,14 +12013,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12053,23 +12031,23 @@
     <row r="241">
       <c r="A241" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12080,14 +12058,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12098,23 +12076,23 @@
     <row r="242">
       <c r="A242" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12125,14 +12103,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12143,23 +12121,23 @@
     <row r="243">
       <c r="A243" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12170,14 +12148,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12188,23 +12166,23 @@
     <row r="244">
       <c r="A244" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12215,14 +12193,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,17 +12211,17 @@
     <row r="245">
       <c r="A245" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B245" s="21" t="inlineStr">
         <is>
-          <t>Secure privileged access</t>
+          <t>Development Strategy</t>
         </is>
       </c>
       <c r="C245" s="21" t="inlineStr">
         <is>
-          <t>Separate privledged admin accounts for Azure administrative tasks.</t>
+          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
         </is>
       </c>
       <c r="D245" s="21" t="n"/>
@@ -12260,14 +12238,14 @@
       <c r="G245" s="21" t="n"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
       <c r="L245" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M245" s="25" t="n"/>
@@ -12278,23 +12256,23 @@
     <row r="246">
       <c r="A246" s="21" t="inlineStr">
         <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>Service enablement framework</t>
-        </is>
-      </c>
       <c r="C246" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
         </is>
       </c>
       <c r="D246" s="21" t="n"/>
       <c r="E246" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -12305,14 +12283,14 @@
       <c r="G246" s="21" t="n"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
       <c r="L246" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M246" s="25" t="n"/>
@@ -12321,45 +12299,15 @@
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B247" s="21" t="inlineStr">
-        <is>
-          <t>Service enablement framework</t>
-        </is>
-      </c>
-      <c r="C247" s="21" t="inlineStr">
-        <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
-        </is>
-      </c>
+      <c r="A247" s="21" t="n"/>
+      <c r="B247" s="21" t="n"/>
+      <c r="C247" s="21" t="n"/>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E247" s="21" t="n"/>
       <c r="G247" s="21" t="n"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L247" s="25" t="n"/>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13261,7 +13209,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13352,7 +13300,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory Tenant</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+          <t>Develop a plan for securing the delivery application content from your Workload spokes using Application Gateway and Azure Front door.  You can use the Application Delivery checklist to for recommendations.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Ensure you are using Application Gateway v2 SKU</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Ensure you are using the Standard SKU for your Azure Load Balancers</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,7 +3728,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3736,7 +3736,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3752,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Your application gateways should be deployed in subnets with IP prefixes equal or larger than /26</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,19 +3802,15 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for proxying inbound HTTP(S) connections within the landing-zone virtual network and with the apps that they're securing.</t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t>Administration of reverse proxies in general and WAF in particular is closer to the application than to networking, so they belong in the same subscription as the app. Centralizing the Application Gateway and WAF in the connectivity subscription might be OK if it is managed by one single team.</t>
-        </is>
-      </c>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3828,19 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3856,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS servers.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3878,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3906,12 +3897,12 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span multiple Azure regions.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3928,19 +3919,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3956,18 +3943,18 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,19 +3965,15 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4006,18 +3989,18 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4028,19 +4011,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4056,18 +4035,18 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Microsoft Entra ID Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4078,19 +4057,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4106,12 +4085,12 @@
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4128,19 +4107,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4156,18 +4135,18 @@
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Deploy your WAF profiles for Front Door in 'Prevention' mode.</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4178,7 +4157,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4186,7 +4165,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4202,18 +4181,18 @@
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+          <t>Consider the limit of routes per route table (400).</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4224,7 +4203,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4232,7 +4211,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4248,12 +4227,12 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4270,7 +4249,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4278,7 +4257,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4294,18 +4273,18 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Disable health probes when there is only one origin in an Azure Front Door origin group.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4316,15 +4295,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4340,15 +4323,19 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="n"/>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="inlineStr">
+        <is>
+          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
+        </is>
+      </c>
       <c r="E76" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4362,15 +4349,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4386,18 +4377,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Use HEAD health probes with Azure Front Door, to reduce the traffic that Front Door sends to your application.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4408,15 +4399,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,12 +4427,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway instead of Load Balancer outbound rules for better SNAT scalability</t>
+          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4454,7 +4449,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4462,7 +4457,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4478,12 +4473,12 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4500,7 +4495,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4508,7 +4503,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4524,12 +4519,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4546,15 +4541,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4570,12 +4569,12 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4592,15 +4591,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4616,18 +4619,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4638,19 +4641,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4666,12 +4669,12 @@
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4688,19 +4691,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4716,12 +4719,12 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS servers.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4738,15 +4741,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4762,12 +4769,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4784,15 +4791,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4808,18 +4819,18 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,15 +4841,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4854,18 +4869,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4876,15 +4891,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4900,12 +4919,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4922,19 +4941,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4950,18 +4969,18 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4972,19 +4991,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5000,18 +5015,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5022,15 +5037,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5046,18 +5065,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Consider the limit of routes per route table (400).</t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5068,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5092,12 +5115,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5114,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5138,18 +5165,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5160,19 +5187,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5188,19 +5215,15 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
-        </is>
-      </c>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -5214,19 +5237,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5242,12 +5265,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5264,19 +5287,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5292,18 +5315,18 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5314,7 +5337,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5322,7 +5345,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5338,12 +5361,12 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5360,15 +5383,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5384,12 +5411,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5406,19 +5433,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5434,12 +5457,12 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5456,19 +5479,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5484,18 +5503,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5506,19 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5534,12 +5553,12 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5556,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5584,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5606,19 +5625,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5634,12 +5653,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5656,19 +5675,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5684,18 +5703,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5706,19 +5725,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5734,18 +5753,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5756,19 +5775,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5784,18 +5803,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5806,19 +5825,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5834,12 +5853,12 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5856,7 +5875,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5864,7 +5883,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5880,12 +5899,12 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5902,19 +5921,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5930,18 +5945,18 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5952,19 +5967,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5980,12 +5991,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6002,19 +6013,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6030,12 +6037,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6052,19 +6059,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6080,18 +6082,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6102,19 +6104,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6130,12 +6132,12 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6152,19 +6154,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6180,18 +6182,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6202,15 +6204,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6226,18 +6232,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6248,19 +6254,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6276,12 +6282,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6298,14 +6304,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6321,18 +6332,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6343,14 +6354,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6366,12 +6377,12 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6388,19 +6399,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6416,12 +6423,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6438,19 +6445,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6466,18 +6468,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6488,19 +6490,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6516,12 +6518,12 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6538,19 +6540,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6566,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,21 +6588,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6616,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6638,19 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6666,18 +6664,18 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6688,19 +6686,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6716,18 +6714,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6738,15 +6736,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6762,18 +6764,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6784,14 +6786,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,18 +6809,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6829,14 +6831,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6852,18 +6854,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6874,14 +6876,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6897,18 +6904,18 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6919,14 +6926,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6942,18 +6949,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6964,19 +6971,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6992,12 +6994,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7014,19 +7016,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7042,12 +7039,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7064,19 +7061,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7092,12 +7084,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7114,19 +7106,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7142,18 +7129,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,19 +7151,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7187,17 +7169,17 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
+          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7214,14 +7196,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7232,23 +7214,23 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7259,14 +7241,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7277,17 +7259,17 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7304,14 +7286,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7322,17 +7304,17 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7349,19 +7331,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,17 +7349,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7399,19 +7376,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7422,23 +7394,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7447,17 +7419,16 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7468,17 +7439,17 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7495,19 +7466,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7518,20 +7484,24 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -7545,19 +7515,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7568,17 +7533,17 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7595,19 +7560,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7618,17 +7578,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7645,14 +7605,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7663,17 +7628,17 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7690,14 +7655,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7708,17 +7673,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
+          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7735,19 +7700,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7758,17 +7718,17 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7785,14 +7745,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7803,23 +7763,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7830,14 +7790,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7848,17 +7808,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
+          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7875,14 +7835,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7893,17 +7853,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7920,14 +7880,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7938,17 +7898,17 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7965,14 +7925,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7983,23 +7943,23 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8010,14 +7970,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8028,23 +7993,23 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8053,16 +8018,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8073,17 +8034,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8100,14 +8061,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8118,23 +8084,23 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8145,14 +8111,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8163,23 +8134,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8190,14 +8161,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8208,23 +8184,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8235,14 +8211,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8253,23 +8234,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8280,14 +8261,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8298,23 +8284,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8325,14 +8311,19 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8343,23 +8334,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8370,14 +8361,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8388,17 +8379,17 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8415,14 +8406,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8433,17 +8424,17 @@
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8460,14 +8451,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8478,23 +8469,23 @@
     <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8505,14 +8496,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8523,17 +8514,17 @@
     <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="21" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8550,14 +8541,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8568,23 +8559,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8595,14 +8586,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,17 +8604,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8640,14 +8631,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8658,17 +8649,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8685,14 +8676,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8703,17 +8694,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8730,14 +8721,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8748,17 +8739,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8766,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8784,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8811,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8838,20 +8829,24 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -8865,14 +8860,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,24 +8878,20 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -8914,14 +8905,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8932,17 +8923,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8959,14 +8950,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8977,17 +8968,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9004,19 +8995,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9027,23 +9013,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9054,14 +9040,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,18 +9063,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9099,14 +9085,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9117,17 +9103,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9130,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9162,23 +9148,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9175,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9207,17 +9193,17 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9234,14 +9220,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,23 +9238,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9279,14 +9265,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9283,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9310,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9328,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,19 +9355,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9392,17 +9373,17 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9417,11 +9398,16 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,17 +9418,17 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9459,19 +9445,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,17 +9463,17 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9509,19 +9490,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,17 +9508,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9559,19 +9535,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9582,17 +9553,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9609,19 +9580,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9632,17 +9598,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,19 +9625,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9682,17 +9643,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9709,19 +9670,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9732,23 +9688,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9759,14 +9715,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9777,17 +9733,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9804,14 +9760,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9822,17 +9778,17 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9849,14 +9805,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9867,17 +9823,17 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9894,14 +9850,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9912,23 +9868,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9939,14 +9895,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9957,23 +9913,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9984,14 +9940,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10002,23 +9958,23 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10029,14 +9985,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10047,23 +10003,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Enable Endpoint Protection on IaaS Servers.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10074,14 +10030,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10092,17 +10048,17 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10119,14 +10075,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10137,17 +10093,17 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10164,14 +10120,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10182,23 +10138,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10209,14 +10165,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10227,27 +10183,23 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10258,14 +10210,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10276,23 +10228,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Secure privileged access</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10303,14 +10255,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10321,17 +10273,17 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10348,14 +10300,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10366,17 +10318,17 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10393,14 +10345,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10411,17 +10363,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10438,14 +10390,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10456,23 +10408,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10483,14 +10435,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10501,23 +10453,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10528,14 +10480,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10546,23 +10498,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10573,14 +10525,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10591,17 +10543,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Include unit tests for IaC and application code as part of your build process.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10618,14 +10570,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10636,17 +10588,17 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10663,14 +10615,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10681,23 +10633,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10708,14 +10660,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10726,23 +10678,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10753,14 +10705,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10771,23 +10723,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
+          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10798,14 +10750,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10816,17 +10768,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10843,14 +10795,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10861,23 +10813,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Development Strategy</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10888,14 +10840,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10906,23 +10858,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B216" s="21" t="inlineStr">
+        <is>
           <t>Security</t>
         </is>
       </c>
-      <c r="B216" s="21" t="inlineStr">
-        <is>
-          <t>Encryption and keys</t>
-        </is>
-      </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10933,14 +10885,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10949,1350 +10901,450 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B217" s="21" t="inlineStr">
-        <is>
-          <t>Encryption and keys</t>
-        </is>
-      </c>
-      <c r="C217" s="21" t="inlineStr">
-        <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
-        </is>
-      </c>
+      <c r="A217" s="21" t="n"/>
+      <c r="B217" s="21" t="n"/>
+      <c r="C217" s="21" t="n"/>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E217" s="21" t="n"/>
       <c r="G217" s="21" t="n"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
-        </is>
-      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="inlineStr">
-        <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
-        </is>
-      </c>
+      <c r="L217" s="25" t="n"/>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B218" s="21" t="inlineStr">
-        <is>
-          <t>Encryption and keys</t>
-        </is>
-      </c>
-      <c r="C218" s="21" t="inlineStr">
-        <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
-        </is>
-      </c>
+      <c r="A218" s="21" t="n"/>
+      <c r="B218" s="21" t="n"/>
+      <c r="C218" s="21" t="n"/>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E218" s="21" t="n"/>
       <c r="G218" s="21" t="n"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="inlineStr">
-        <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
-        </is>
-      </c>
+      <c r="L218" s="25" t="n"/>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B219" s="21" t="inlineStr">
-        <is>
-          <t>Encryption and keys</t>
-        </is>
-      </c>
-      <c r="C219" s="21" t="inlineStr">
-        <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
-        </is>
-      </c>
+      <c r="A219" s="21" t="n"/>
+      <c r="B219" s="21" t="n"/>
+      <c r="C219" s="21" t="n"/>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E219" s="21" t="n"/>
       <c r="G219" s="21" t="n"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
-        </is>
-      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="inlineStr">
-        <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
-        </is>
-      </c>
+      <c r="L219" s="25" t="n"/>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B220" s="21" t="inlineStr">
-        <is>
-          <t>Encryption and keys</t>
-        </is>
-      </c>
-      <c r="C220" s="21" t="inlineStr">
-        <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
-        </is>
-      </c>
+      <c r="A220" s="21" t="n"/>
+      <c r="B220" s="21" t="n"/>
+      <c r="C220" s="21" t="n"/>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E220" s="21" t="n"/>
       <c r="G220" s="21" t="n"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="inlineStr">
-        <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
-        </is>
-      </c>
+      <c r="L220" s="25" t="n"/>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B221" s="21" t="inlineStr">
-        <is>
-          <t>Encryption and keys</t>
-        </is>
-      </c>
-      <c r="C221" s="21" t="inlineStr">
-        <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
-        </is>
-      </c>
+      <c r="A221" s="21" t="n"/>
+      <c r="B221" s="21" t="n"/>
+      <c r="C221" s="21" t="n"/>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E221" s="21" t="n"/>
       <c r="G221" s="21" t="n"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="inlineStr">
-        <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
-        </is>
-      </c>
+      <c r="L221" s="25" t="n"/>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B222" s="21" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
-      <c r="C222" s="21" t="inlineStr">
-        <is>
-          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
-        </is>
-      </c>
+      <c r="A222" s="21" t="n"/>
+      <c r="B222" s="21" t="n"/>
+      <c r="C222" s="21" t="n"/>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E222" s="21" t="n"/>
       <c r="G222" s="21" t="n"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
-        </is>
-      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="inlineStr">
-        <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
-        </is>
-      </c>
+      <c r="L222" s="25" t="n"/>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B223" s="21" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
-      <c r="C223" s="21" t="inlineStr">
-        <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
-        </is>
-      </c>
+      <c r="A223" s="21" t="n"/>
+      <c r="B223" s="21" t="n"/>
+      <c r="C223" s="21" t="n"/>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E223" s="21" t="n"/>
       <c r="G223" s="21" t="n"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
-        </is>
-      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="inlineStr">
-        <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
-        </is>
-      </c>
+      <c r="L223" s="25" t="n"/>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B224" s="21" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
-      <c r="C224" s="21" t="inlineStr">
-        <is>
-          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
-        </is>
-      </c>
+      <c r="A224" s="21" t="n"/>
+      <c r="B224" s="21" t="n"/>
+      <c r="C224" s="21" t="n"/>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E224" s="21" t="n"/>
       <c r="G224" s="21" t="n"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
-        </is>
-      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="inlineStr">
-        <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
-        </is>
-      </c>
+      <c r="L224" s="25" t="n"/>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B225" s="21" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
-      <c r="C225" s="21" t="inlineStr">
-        <is>
-          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
-        </is>
-      </c>
+      <c r="A225" s="21" t="n"/>
+      <c r="B225" s="21" t="n"/>
+      <c r="C225" s="21" t="n"/>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E225" s="21" t="n"/>
       <c r="G225" s="21" t="n"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
-        </is>
-      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="inlineStr">
-        <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
-        </is>
-      </c>
+      <c r="L225" s="25" t="n"/>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B226" s="21" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
-      <c r="C226" s="21" t="inlineStr">
-        <is>
-          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
-        </is>
-      </c>
+      <c r="A226" s="21" t="n"/>
+      <c r="B226" s="21" t="n"/>
+      <c r="C226" s="21" t="n"/>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E226" s="21" t="n"/>
       <c r="G226" s="21" t="n"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
-        </is>
-      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="inlineStr">
-        <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
-        </is>
-      </c>
+      <c r="L226" s="25" t="n"/>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B227" s="21" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
-      <c r="C227" s="21" t="inlineStr">
-        <is>
-          <t>Enable Endpoint Protection on IaaS Servers.</t>
-        </is>
-      </c>
+      <c r="A227" s="21" t="n"/>
+      <c r="B227" s="21" t="n"/>
+      <c r="C227" s="21" t="n"/>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E227" s="21" t="n"/>
       <c r="G227" s="21" t="n"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
-        </is>
-      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="inlineStr">
-        <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
-        </is>
-      </c>
+      <c r="L227" s="25" t="n"/>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B229" s="21" t="inlineStr">
-        <is>
-          <t>Operations</t>
-        </is>
-      </c>
-      <c r="C229" s="21" t="inlineStr">
-        <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
-        </is>
-      </c>
+      <c r="A229" s="21" t="n"/>
+      <c r="B229" s="21" t="n"/>
+      <c r="C229" s="21" t="n"/>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E229" s="21" t="n"/>
       <c r="G229" s="21" t="n"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="inlineStr">
-        <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
-        </is>
-      </c>
+      <c r="L229" s="25" t="n"/>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
       <c r="P229" s="25" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B230" s="21" t="inlineStr">
-        <is>
-          <t>Overview</t>
-        </is>
-      </c>
-      <c r="C230" s="21" t="inlineStr">
-        <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
-        </is>
-      </c>
+      <c r="A230" s="21" t="n"/>
+      <c r="B230" s="21" t="n"/>
+      <c r="C230" s="21" t="n"/>
       <c r="D230" s="21" t="n"/>
-      <c r="E230" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E230" s="21" t="n"/>
       <c r="G230" s="21" t="n"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
-        </is>
-      </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
-      <c r="L230" s="25" t="inlineStr">
-        <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
-        </is>
-      </c>
+      <c r="L230" s="25" t="n"/>
       <c r="M230" s="25" t="n"/>
       <c r="N230" s="25" t="n"/>
       <c r="O230" s="25" t="n"/>
       <c r="P230" s="25" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B231" s="21" t="inlineStr">
-        <is>
-          <t>Overview</t>
-        </is>
-      </c>
-      <c r="C231" s="21" t="inlineStr">
-        <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
-        </is>
-      </c>
+      <c r="A231" s="21" t="n"/>
+      <c r="B231" s="21" t="n"/>
+      <c r="C231" s="21" t="n"/>
       <c r="D231" s="21" t="n"/>
-      <c r="E231" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E231" s="21" t="n"/>
       <c r="G231" s="21" t="n"/>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
-        </is>
-      </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
-      <c r="L231" s="25" t="inlineStr">
-        <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
-        </is>
-      </c>
+      <c r="L231" s="25" t="n"/>
       <c r="M231" s="25" t="n"/>
       <c r="N231" s="25" t="n"/>
       <c r="O231" s="25" t="n"/>
       <c r="P231" s="25" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B232" s="21" t="inlineStr">
-        <is>
-          <t>Secure privileged access</t>
-        </is>
-      </c>
-      <c r="C232" s="21" t="inlineStr">
-        <is>
-          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
-        </is>
-      </c>
+      <c r="A232" s="21" t="n"/>
+      <c r="B232" s="21" t="n"/>
+      <c r="C232" s="21" t="n"/>
       <c r="D232" s="21" t="n"/>
-      <c r="E232" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E232" s="21" t="n"/>
       <c r="G232" s="21" t="n"/>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
-      <c r="L232" s="25" t="inlineStr">
-        <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
-        </is>
-      </c>
+      <c r="L232" s="25" t="n"/>
       <c r="M232" s="25" t="n"/>
       <c r="N232" s="25" t="n"/>
       <c r="O232" s="25" t="n"/>
       <c r="P232" s="25" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B233" s="21" t="inlineStr">
-        <is>
-          <t>Service enablement framework</t>
-        </is>
-      </c>
-      <c r="C233" s="21" t="inlineStr">
-        <is>
-          <t>Plan how new azure services will be implemented</t>
-        </is>
-      </c>
+      <c r="A233" s="21" t="n"/>
+      <c r="B233" s="21" t="n"/>
+      <c r="C233" s="21" t="n"/>
       <c r="D233" s="21" t="n"/>
-      <c r="E233" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E233" s="21" t="n"/>
       <c r="G233" s="21" t="n"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
-      <c r="L233" s="25" t="inlineStr">
-        <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
-        </is>
-      </c>
+      <c r="L233" s="25" t="n"/>
       <c r="M233" s="25" t="n"/>
       <c r="N233" s="25" t="n"/>
       <c r="O233" s="25" t="n"/>
       <c r="P233" s="25" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="B234" s="21" t="inlineStr">
-        <is>
-          <t>Service enablement framework</t>
-        </is>
-      </c>
-      <c r="C234" s="21" t="inlineStr">
-        <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
-        </is>
-      </c>
+      <c r="A234" s="21" t="n"/>
+      <c r="B234" s="21" t="n"/>
+      <c r="C234" s="21" t="n"/>
       <c r="D234" s="21" t="n"/>
-      <c r="E234" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E234" s="21" t="n"/>
       <c r="G234" s="21" t="n"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
-      <c r="L234" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L234" s="25" t="n"/>
       <c r="M234" s="25" t="n"/>
       <c r="N234" s="25" t="n"/>
       <c r="O234" s="25" t="n"/>
       <c r="P234" s="25" t="n"/>
     </row>
     <row r="235">
-      <c r="A235" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B235" s="21" t="inlineStr">
-        <is>
-          <t>DevOps Team Topologies</t>
-        </is>
-      </c>
-      <c r="C235" s="21" t="inlineStr">
-        <is>
-          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
-        </is>
-      </c>
+      <c r="A235" s="21" t="n"/>
+      <c r="B235" s="21" t="n"/>
+      <c r="C235" s="21" t="n"/>
       <c r="D235" s="21" t="n"/>
-      <c r="E235" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E235" s="21" t="n"/>
       <c r="G235" s="21" t="n"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
-        </is>
-      </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
-      <c r="L235" s="25" t="inlineStr">
-        <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
-        </is>
-      </c>
+      <c r="L235" s="25" t="n"/>
       <c r="M235" s="25" t="n"/>
       <c r="N235" s="25" t="n"/>
       <c r="O235" s="25" t="n"/>
       <c r="P235" s="25" t="n"/>
     </row>
     <row r="236">
-      <c r="A236" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B236" s="21" t="inlineStr">
-        <is>
-          <t>DevOps Team Topologies</t>
-        </is>
-      </c>
-      <c r="C236" s="21" t="inlineStr">
-        <is>
-          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
-        </is>
-      </c>
+      <c r="A236" s="21" t="n"/>
+      <c r="B236" s="21" t="n"/>
+      <c r="C236" s="21" t="n"/>
       <c r="D236" s="21" t="n"/>
-      <c r="E236" s="21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E236" s="21" t="n"/>
       <c r="G236" s="21" t="n"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
-      <c r="L236" s="25" t="inlineStr">
-        <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
-        </is>
-      </c>
+      <c r="L236" s="25" t="n"/>
       <c r="M236" s="25" t="n"/>
       <c r="N236" s="25" t="n"/>
       <c r="O236" s="25" t="n"/>
       <c r="P236" s="25" t="n"/>
     </row>
     <row r="237">
-      <c r="A237" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B237" s="21" t="inlineStr">
-        <is>
-          <t>DevOps Team Topologies</t>
-        </is>
-      </c>
-      <c r="C237" s="21" t="inlineStr">
-        <is>
-          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
-        </is>
-      </c>
+      <c r="A237" s="21" t="n"/>
+      <c r="B237" s="21" t="n"/>
+      <c r="C237" s="21" t="n"/>
       <c r="D237" s="21" t="n"/>
-      <c r="E237" s="21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E237" s="21" t="n"/>
       <c r="G237" s="21" t="n"/>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
-      <c r="L237" s="25" t="inlineStr">
-        <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
-        </is>
-      </c>
+      <c r="L237" s="25" t="n"/>
       <c r="M237" s="25" t="n"/>
       <c r="N237" s="25" t="n"/>
       <c r="O237" s="25" t="n"/>
       <c r="P237" s="25" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B238" s="21" t="inlineStr">
-        <is>
-          <t>DevOps Team Topologies</t>
-        </is>
-      </c>
-      <c r="C238" s="21" t="inlineStr">
-        <is>
-          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
-        </is>
-      </c>
+      <c r="A238" s="21" t="n"/>
+      <c r="B238" s="21" t="n"/>
+      <c r="C238" s="21" t="n"/>
       <c r="D238" s="21" t="n"/>
-      <c r="E238" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E238" s="21" t="n"/>
       <c r="G238" s="21" t="n"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
-      <c r="L238" s="25" t="inlineStr">
-        <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
-        </is>
-      </c>
+      <c r="L238" s="25" t="n"/>
       <c r="M238" s="25" t="n"/>
       <c r="N238" s="25" t="n"/>
       <c r="O238" s="25" t="n"/>
       <c r="P238" s="25" t="n"/>
     </row>
     <row r="239">
-      <c r="A239" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B239" s="21" t="inlineStr">
-        <is>
-          <t>DevOps Team Topologies</t>
-        </is>
-      </c>
-      <c r="C239" s="21" t="inlineStr">
-        <is>
-          <t>Include unit tests for IaC and application code as part of your build process.</t>
-        </is>
-      </c>
+      <c r="A239" s="21" t="n"/>
+      <c r="B239" s="21" t="n"/>
+      <c r="C239" s="21" t="n"/>
       <c r="D239" s="21" t="n"/>
-      <c r="E239" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E239" s="21" t="n"/>
       <c r="G239" s="21" t="n"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
-      <c r="L239" s="25" t="inlineStr">
-        <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
-        </is>
-      </c>
+      <c r="L239" s="25" t="n"/>
       <c r="M239" s="25" t="n"/>
       <c r="N239" s="25" t="n"/>
       <c r="O239" s="25" t="n"/>
       <c r="P239" s="25" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B240" s="21" t="inlineStr">
-        <is>
-          <t>DevOps Team Topologies</t>
-        </is>
-      </c>
-      <c r="C240" s="21" t="inlineStr">
-        <is>
-          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
-        </is>
-      </c>
+      <c r="A240" s="21" t="n"/>
+      <c r="B240" s="21" t="n"/>
+      <c r="C240" s="21" t="n"/>
       <c r="D240" s="21" t="n"/>
-      <c r="E240" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E240" s="21" t="n"/>
       <c r="G240" s="21" t="n"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
-      <c r="L240" s="25" t="inlineStr">
-        <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
-        </is>
-      </c>
+      <c r="L240" s="25" t="n"/>
       <c r="M240" s="25" t="n"/>
       <c r="N240" s="25" t="n"/>
       <c r="O240" s="25" t="n"/>
       <c r="P240" s="25" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B241" s="21" t="inlineStr">
-        <is>
-          <t>DevOps Team Topologies</t>
-        </is>
-      </c>
-      <c r="C241" s="21" t="inlineStr">
-        <is>
-          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
-        </is>
-      </c>
+      <c r="A241" s="21" t="n"/>
+      <c r="B241" s="21" t="n"/>
+      <c r="C241" s="21" t="n"/>
       <c r="D241" s="21" t="n"/>
-      <c r="E241" s="21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E241" s="21" t="n"/>
       <c r="G241" s="21" t="n"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
-        </is>
-      </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
-      <c r="L241" s="25" t="inlineStr">
-        <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
-        </is>
-      </c>
+      <c r="L241" s="25" t="n"/>
       <c r="M241" s="25" t="n"/>
       <c r="N241" s="25" t="n"/>
       <c r="O241" s="25" t="n"/>
       <c r="P241" s="25" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B242" s="21" t="inlineStr">
-        <is>
-          <t>Development Lifecycle</t>
-        </is>
-      </c>
-      <c r="C242" s="21" t="inlineStr">
-        <is>
-          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
-        </is>
-      </c>
+      <c r="A242" s="21" t="n"/>
+      <c r="B242" s="21" t="n"/>
+      <c r="C242" s="21" t="n"/>
       <c r="D242" s="21" t="n"/>
-      <c r="E242" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E242" s="21" t="n"/>
       <c r="G242" s="21" t="n"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
-      <c r="L242" s="25" t="inlineStr">
-        <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
-        </is>
-      </c>
+      <c r="L242" s="25" t="n"/>
       <c r="M242" s="25" t="n"/>
       <c r="N242" s="25" t="n"/>
       <c r="O242" s="25" t="n"/>
       <c r="P242" s="25" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B243" s="21" t="inlineStr">
-        <is>
-          <t>Development Lifecycle</t>
-        </is>
-      </c>
-      <c r="C243" s="21" t="inlineStr">
-        <is>
-          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
-        </is>
-      </c>
+      <c r="A243" s="21" t="n"/>
+      <c r="B243" s="21" t="n"/>
+      <c r="C243" s="21" t="n"/>
       <c r="D243" s="21" t="n"/>
-      <c r="E243" s="21" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E243" s="21" t="n"/>
       <c r="G243" s="21" t="n"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
-      <c r="L243" s="25" t="inlineStr">
-        <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
-        </is>
-      </c>
+      <c r="L243" s="25" t="n"/>
       <c r="M243" s="25" t="n"/>
       <c r="N243" s="25" t="n"/>
       <c r="O243" s="25" t="n"/>
       <c r="P243" s="25" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B244" s="21" t="inlineStr">
-        <is>
-          <t>Development Lifecycle</t>
-        </is>
-      </c>
-      <c r="C244" s="21" t="inlineStr">
-        <is>
-          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
-        </is>
-      </c>
+      <c r="A244" s="21" t="n"/>
+      <c r="B244" s="21" t="n"/>
+      <c r="C244" s="21" t="n"/>
       <c r="D244" s="21" t="n"/>
-      <c r="E244" s="21" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E244" s="21" t="n"/>
       <c r="G244" s="21" t="n"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
-      <c r="L244" s="25" t="inlineStr">
-        <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
-        </is>
-      </c>
+      <c r="L244" s="25" t="n"/>
       <c r="M244" s="25" t="n"/>
       <c r="N244" s="25" t="n"/>
       <c r="O244" s="25" t="n"/>
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B245" s="21" t="inlineStr">
-        <is>
-          <t>Development Strategy</t>
-        </is>
-      </c>
-      <c r="C245" s="21" t="inlineStr">
-        <is>
-          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
-        </is>
-      </c>
+      <c r="A245" s="21" t="n"/>
+      <c r="B245" s="21" t="n"/>
+      <c r="C245" s="21" t="n"/>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E245" s="21" t="n"/>
       <c r="G245" s="21" t="n"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="inlineStr">
-        <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
-        </is>
-      </c>
+      <c r="L245" s="25" t="n"/>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C246" s="21" t="inlineStr">
-        <is>
-          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
-        </is>
-      </c>
+      <c r="A246" s="21" t="n"/>
+      <c r="B246" s="21" t="n"/>
+      <c r="C246" s="21" t="n"/>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E246" s="21" t="n"/>
       <c r="G246" s="21" t="n"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L246" s="25" t="n"/>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
@@ -13209,7 +12261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -3366,13 +3366,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3383,19 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3416,13 +3416,13 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Indentity management group, to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3433,19 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Indentity management group, to host Windows Server Active Directory domain controllers</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3483,19 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Regions</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>Select the right Azure region/s for your deployment. Azure is a global-scale cloud platform that provide global coverage through many regions and geographies. Different Azure regions have different characteristics, access and availability models, costs, capacity, and services offered, then it is important to consider all criteria and requirements</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3556,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Regions</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Develop a plan for securing the delivery application content from your Workload spokes using Application Gateway and Azure Front door.  You can use the Application Delivery checklist to for recommendations.</t>
+          <t>Consider a multi-region deployment. Depending on customer size, locations, and users presence, operating in multiple regions can be a common choice to deliver services and run applications closer to them. Using a multi-region deployment is also important to provide geo disaster recovery capabilities, to eliminate the dependency from a single region capacity and diminish the risk of a temporary and localized resource capacity constraint</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3601,17 +3606,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Regions</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3628,19 +3633,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3661,7 +3666,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Develop a plan for securing the delivery application content from your Workload spokes using Application Gateway and Azure Front door.  You can use the Application Delivery checklist to for recommendations.</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3683,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,15 +3728,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3756,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3778,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,12 +3806,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3824,19 +3828,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3852,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS servers.</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,14 +3874,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,7 +3907,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3919,15 +3924,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3948,13 +3957,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
+          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS servers.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3965,7 +3974,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3973,7 +3982,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,13 +4003,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4011,7 +4020,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4019,7 +4028,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4040,13 +4049,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
+          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4057,19 +4066,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4090,13 +4095,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4107,19 +4112,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4140,7 +4141,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4157,15 +4158,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4186,7 +4191,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Consider the limit of routes per route table (400).</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4203,15 +4208,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4232,13 +4241,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4249,7 +4258,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4257,7 +4266,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4273,12 +4282,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Consider the limit of routes per route table (400).</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4295,19 +4304,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4323,22 +4328,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
-        </is>
-      </c>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4349,19 +4350,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4382,7 +4379,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4399,7 +4396,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
@@ -4411,7 +4408,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,13 +4429,17 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="n"/>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="inlineStr">
+        <is>
+          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
+        </is>
+      </c>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4449,15 +4450,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4478,13 +4483,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4495,15 +4500,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4524,13 +4533,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4541,19 +4550,15 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4574,13 +4579,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4591,19 +4596,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4624,7 +4625,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4641,7 +4642,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
@@ -4653,7 +4654,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4674,7 +4675,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4691,19 +4692,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4724,13 +4725,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4741,7 +4742,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4753,7 +4754,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4774,7 +4775,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4791,19 +4792,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4824,13 +4825,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4841,7 +4842,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
@@ -4853,7 +4854,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4874,7 +4875,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4891,7 +4892,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4903,7 +4904,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4924,7 +4925,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4941,7 +4942,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4953,7 +4954,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4974,13 +4975,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4991,15 +4992,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5015,18 +5020,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5037,19 +5042,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5065,18 +5070,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5087,19 +5092,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,7 +5121,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5149,7 +5150,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5170,13 +5171,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5187,19 +5188,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5220,13 +5221,13 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5237,19 +5238,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5270,13 +5271,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,19 +5288,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5320,13 +5321,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5340,12 +5341,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I96" s="15" t="n"/>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5366,13 +5371,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5383,19 +5388,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5411,18 +5416,18 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5433,7 +5438,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5441,7 +5446,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5457,18 +5462,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,15 +5484,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5517,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5534,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,7 +5563,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5575,19 +5580,15 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,13 +5609,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5626,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5637,7 +5638,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,7 +5659,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5675,19 +5676,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,7 +5709,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5725,19 +5726,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,13 +5759,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5775,19 +5776,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5808,13 +5809,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,19 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5858,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5875,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5904,7 +5909,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5921,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,7 +5959,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5967,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5975,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6005,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,7 +6022,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -6021,7 +6030,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6042,7 +6051,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6059,14 +6068,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6082,12 +6091,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6104,19 +6113,15 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6132,18 +6137,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6154,19 +6159,15 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6182,18 +6183,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Assess and review network outbound traffic configuration and strategy before the upcoming breaking change. On September 30, 2025, default outbound access for new deployments will be retired and only explicit access configurations will be allowed</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6204,19 +6205,15 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6237,13 +6234,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6254,7 +6251,7 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6266,7 +6263,7 @@
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6287,7 +6284,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6309,14 +6306,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6332,18 +6329,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6354,14 +6351,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6377,18 +6379,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6399,15 +6401,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,12 +6429,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6445,14 +6451,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,13 +6484,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6490,19 +6501,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,13 +6530,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6540,19 +6547,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6573,7 +6576,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6588,17 +6591,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6622,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6669,7 +6672,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6686,19 +6689,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6714,12 +6717,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6734,21 +6737,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6764,12 +6763,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6786,14 +6785,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6809,18 +6813,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6831,14 +6835,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6859,7 +6868,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6876,19 +6885,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6909,7 +6918,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6926,14 +6935,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6954,13 +6963,13 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6971,14 +6980,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6999,7 +7008,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7016,14 +7025,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7044,7 +7058,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7061,14 +7075,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7089,7 +7103,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7106,14 +7120,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7134,13 +7148,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7151,14 +7165,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7169,23 +7183,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7196,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7214,17 +7228,17 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7241,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7259,23 +7273,23 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7286,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7314,13 +7328,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
+          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7338,7 +7352,7 @@
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7359,7 +7373,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
+          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7376,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7404,13 +7418,13 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7421,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7449,7 +7463,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7473,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7494,14 +7508,10 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -7515,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7543,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7560,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7588,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7605,19 +7615,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7633,18 +7638,22 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7655,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7673,17 +7682,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7700,14 +7709,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7723,12 +7732,12 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7745,14 +7754,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7763,23 +7777,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7790,14 +7804,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7808,17 +7822,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
+          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7835,14 +7849,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7853,17 +7867,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
+          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7880,14 +7894,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7903,18 +7917,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7925,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7948,12 +7962,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7970,19 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7998,12 +8007,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8018,12 +8027,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8039,12 +8052,12 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8061,19 +8074,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8094,7 +8102,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8111,19 +8119,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8144,7 +8152,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8159,21 +8167,12 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H156" s="15" t="n"/>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8194,7 +8193,7 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8211,19 +8210,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8244,7 +8243,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8261,19 +8260,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8294,7 +8293,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8311,7 +8310,7 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8323,7 +8322,7 @@
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8344,13 +8343,13 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8361,14 +8360,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8389,7 +8393,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8406,14 +8410,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8434,7 +8443,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8451,14 +8460,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8479,13 +8493,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8496,14 +8510,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8524,7 +8538,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8541,14 +8555,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8569,7 +8583,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8586,14 +8600,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8614,7 +8628,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8631,14 +8645,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8673,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,14 +8690,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8704,7 +8718,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8721,14 +8735,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8749,7 +8763,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8766,14 +8780,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8789,12 +8803,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8811,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8834,19 +8848,15 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -8860,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,12 +8893,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8905,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8928,12 +8938,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8950,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8973,15 +8983,19 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -8995,14 +9009,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9013,23 +9027,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9040,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9058,23 +9072,23 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9085,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9103,17 +9117,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9130,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9148,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9175,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9193,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9220,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9238,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9265,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9288,12 +9302,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9310,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9333,12 +9347,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9355,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9383,13 +9397,13 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9400,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9428,7 +9442,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9445,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9473,7 +9487,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9497,7 +9511,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,7 +9532,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9542,7 +9556,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9563,7 +9577,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9580,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9608,7 +9622,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9632,7 +9646,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9653,7 +9667,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9670,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9698,7 +9712,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9715,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9743,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9767,7 +9781,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9783,12 +9797,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9805,14 +9819,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9828,12 +9842,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9850,14 +9864,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9873,18 +9887,18 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9895,14 +9909,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9923,13 +9937,13 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
+          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9940,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9968,13 +9982,13 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -9985,14 +9999,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10013,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Enable Endpoint Protection on IaaS Servers.</t>
+          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10030,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10058,13 +10072,13 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10075,14 +10089,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10103,13 +10117,13 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10120,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10143,12 +10157,12 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>Enable Endpoint Protection on IaaS Servers.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10165,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10188,18 +10202,18 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10210,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10233,18 +10247,18 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Secure privileged access</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10255,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10278,18 +10292,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10300,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10323,18 +10337,18 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10345,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10363,17 +10377,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Secure privileged access</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
+          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10390,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10408,23 +10422,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10435,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10453,23 +10467,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10480,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10508,7 +10522,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
+          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10525,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10553,13 +10567,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Include unit tests for IaC and application code as part of your build process.</t>
+          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10570,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10598,13 +10612,13 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
+          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10615,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10643,13 +10657,13 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
+          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10660,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10683,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
+          <t>Include unit tests for IaC and application code as part of your build process.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10705,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10728,18 +10742,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
+          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10750,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10773,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
+          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10795,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10818,12 +10832,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Development Strategy</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
+          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10847,7 +10861,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10863,18 +10877,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
+          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10885,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10901,45 +10915,135 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="n"/>
-      <c r="B217" s="21" t="n"/>
-      <c r="C217" s="21" t="n"/>
+      <c r="A217" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B217" s="21" t="inlineStr">
+        <is>
+          <t>Development Lifecycle</t>
+        </is>
+      </c>
+      <c r="C217" s="21" t="inlineStr">
+        <is>
+          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
+        </is>
+      </c>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="n"/>
+      <c r="E217" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G217" s="21" t="n"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="n"/>
+      <c r="L217" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="n"/>
-      <c r="B218" s="21" t="n"/>
-      <c r="C218" s="21" t="n"/>
+      <c r="A218" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B218" s="21" t="inlineStr">
+        <is>
+          <t>Development Strategy</t>
+        </is>
+      </c>
+      <c r="C218" s="21" t="inlineStr">
+        <is>
+          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
+        </is>
+      </c>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="n"/>
+      <c r="E218" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G218" s="21" t="n"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="n"/>
+      <c r="L218" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="n"/>
-      <c r="B219" s="21" t="n"/>
-      <c r="C219" s="21" t="n"/>
+      <c r="A219" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B219" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C219" s="21" t="inlineStr">
+        <is>
+          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
+        </is>
+      </c>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="n"/>
+      <c r="E219" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G219" s="21" t="n"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="n"/>
+      <c r="L219" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
@@ -12261,7 +12365,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Regions</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Select the right Azure region/s for your deployment. Azure is a global-scale cloud platform that provide global coverage through many regions and geographies. Different Azure regions have different characteristics, access and availability models, costs, capacity, and services offered, then it is important to consider all criteria and requirements</t>
+          <t>For Sovereign Landing Zone, have a 'confidential corp' and 'confidential online' management group directly under the 'landing zones' MG.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
+          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3566,13 +3561,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Consider a multi-region deployment. Depending on customer size, locations, and users presence, operating in multiple regions can be a common choice to deliver services and run applications closer to them. Using a multi-region deployment is also important to provide geo disaster recovery capabilities, to eliminate the dependency from a single region capacity and diminish the risk of a temporary and localized resource capacity constraint</t>
+          <t>Select the right Azure region/s for your deployment. Azure is a global-scale cloud platform that provide global coverage through many regions and geographies. Different Azure regions have different characteristics, access and availability models, costs, capacity, and services offered, then it is important to consider all criteria and requirements</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3583,7 +3578,7 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3595,7 +3590,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3616,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Consider a multi-region deployment. Depending on customer size, locations, and users presence, operating in multiple regions can be a common choice to deliver services and run applications closer to them. Using a multi-region deployment is also important to provide geo disaster recovery capabilities, to eliminate the dependency from a single region capacity and diminish the risk of a temporary and localized resource capacity constraint</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3633,7 +3628,7 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3645,7 +3640,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3656,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Resource Organization</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Regions</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Develop a plan for securing the delivery application content from your Workload spokes using Application Gateway and Azure Front door.  You can use the Application Delivery checklist to for recommendations.</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3683,14 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Develop a plan for securing the delivery application content from your Workload spokes using Application Gateway and Azure Front door.  You can use the Application Delivery checklist to for recommendations.</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3778,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3806,12 +3802,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3828,15 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3857,13 +3857,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,18 +3897,18 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+          <t xml:space="preserve">For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3924,19 +3919,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3957,13 +3952,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS servers.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3974,15 +3969,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4003,13 +4002,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS servers.</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4020,7 +4019,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4028,7 +4027,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4049,13 +4048,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4066,7 +4065,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4074,7 +4073,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4095,7 +4094,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
+          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4112,7 +4111,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -4120,7 +4119,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4141,13 +4140,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
+          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4158,19 +4157,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4191,7 +4186,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other. </t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4208,19 +4203,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4241,7 +4236,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4258,15 +4253,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4287,7 +4286,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Consider the limit of routes per route table (400).</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4312,7 +4311,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,13 +4332,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>Consider the limit of routes per route table (400).</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4350,7 +4349,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4358,7 +4357,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4374,18 +4373,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4396,19 +4395,15 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4429,14 +4424,10 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
-        </is>
-      </c>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4450,7 +4441,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
@@ -4462,7 +4453,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4483,10 +4474,14 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="n"/>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="inlineStr">
+        <is>
+          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
+        </is>
+      </c>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -4512,7 +4507,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4533,13 +4528,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4550,15 +4545,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4579,7 +4578,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
+          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4596,7 +4595,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4604,7 +4603,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4625,13 +4624,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4642,19 +4641,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4675,7 +4670,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4692,7 +4687,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
@@ -4704,7 +4699,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4725,7 +4720,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4742,7 +4737,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4754,7 +4749,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4775,7 +4770,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4792,19 +4787,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4825,13 +4820,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4842,19 +4837,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4892,7 +4887,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4904,7 +4899,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4925,7 +4920,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4942,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4954,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4975,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4992,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -5004,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5025,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the network, especially between on-premises and Azure.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5042,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5054,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5075,13 +5070,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5092,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5116,12 +5115,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5138,19 +5137,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,18 +5161,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>If you are using a route table in the GatewaySubnet, make sure that gateway routes are propagated.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5188,19 +5183,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5216,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>If using ExpressRoute, your on-premises routing should be dynamic: in the event of a connection failure it should converge to the remaining connection of the circuit. Load should be shared across both connections ideally as active/active, although active/passive is supported too.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5238,19 +5229,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5271,7 +5258,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5288,19 +5275,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5321,13 +5308,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5338,19 +5325,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5371,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5388,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5421,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5438,15 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5467,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5484,7 +5475,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5496,7 +5487,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,12 +5503,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5534,15 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5553,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,7 +5575,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5588,7 +5583,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5604,12 +5599,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5626,19 +5621,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5659,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5676,19 +5671,15 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5709,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5726,19 +5717,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5759,13 +5746,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5776,19 +5763,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5809,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5826,19 +5813,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,13 +5846,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5876,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5896,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5976,15 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6005,7 +5996,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,15 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6051,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6068,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6113,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6121,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6159,7 +6159,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6167,7 +6167,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Assess and review network outbound traffic configuration and strategy before the upcoming breaking change. On September 30, 2025, default outbound access for new deployments will be retired and only explicit access configurations will be allowed</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6205,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6213,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6229,12 +6229,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,19 +6251,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,18 +6274,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6301,19 +6296,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6329,18 +6319,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Assess and review network outbound traffic configuration and strategy before the upcoming breaking change. On September 30, 2025, default outbound access for new deployments will be retired and only explicit access configurations will be allowed</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6351,19 +6341,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6384,13 +6369,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6401,7 +6386,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6413,7 +6398,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6434,7 +6419,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6456,14 +6441,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6479,18 +6464,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6501,15 +6486,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6525,18 +6514,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6547,15 +6536,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6571,12 +6564,12 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6593,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6622,13 +6619,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6639,19 +6636,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6672,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6689,19 +6682,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6722,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6737,17 +6726,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6768,7 +6757,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6785,19 +6774,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6818,7 +6807,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6835,19 +6824,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6863,12 +6852,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6883,21 +6872,17 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6913,12 +6898,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6935,14 +6920,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6958,18 +6948,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6980,14 +6970,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7008,7 +7003,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7025,19 +7020,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7058,7 +7053,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7075,14 +7070,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7103,13 +7098,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7120,14 +7115,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7148,7 +7143,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7165,14 +7160,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,13 +7283,13 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7300,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7318,23 +7318,23 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7345,14 +7345,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7363,17 +7363,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7390,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,23 +7408,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7435,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7463,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
+          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7487,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
+          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7570,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7622,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,14 +7643,10 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -7664,14 +7660,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7692,13 +7688,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7709,14 +7705,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7737,7 +7733,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7754,19 +7750,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7782,18 +7773,22 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7804,14 +7799,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7822,17 +7817,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7849,14 +7844,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,12 +7867,12 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7894,14 +7889,19 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7912,23 +7912,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>For Sovereign Landing Zone, sovereignty policy baseline' policy initiative is deployed and and assigned at correct MG level.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7939,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7957,17 +7957,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
+          <t>For Sovereign Landing Zone, sovereign Control objectives to policy mapping' is documented.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7984,14 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,17 +8002,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
+          <t>For Sovereign Landing Zone, process is in place for CRUD of 'Sovereign Control objectives to policy mapping'.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8027,16 +8027,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8047,23 +8043,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8074,14 +8070,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8092,17 +8088,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8119,19 +8115,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8142,17 +8133,17 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8167,12 +8158,16 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,18 +8183,18 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
+          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8210,19 +8205,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8238,12 +8228,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8260,19 +8250,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8288,12 +8273,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8310,19 +8295,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8338,12 +8318,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8360,19 +8340,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8393,7 +8368,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8410,19 +8385,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8443,7 +8418,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8458,21 +8433,12 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H162" s="15" t="n"/>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8493,13 +8459,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8510,14 +8476,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8538,7 +8509,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8555,14 +8526,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8583,7 +8559,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8600,14 +8576,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8628,7 +8609,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8645,14 +8626,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8673,7 +8659,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8690,14 +8676,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8718,7 +8709,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8735,14 +8726,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8763,13 +8759,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8780,14 +8776,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,7 +8804,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8825,14 +8821,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,7 +8849,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8866,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8898,7 +8894,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8915,14 +8911,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,12 +8934,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,14 +8956,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,19 +8979,15 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9009,14 +9001,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9032,12 +9024,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9054,14 +9046,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,12 +9069,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9099,14 +9091,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9122,12 +9114,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9136,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9162,23 +9154,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9181,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9207,23 +9199,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9234,14 +9226,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,20 +9244,24 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9279,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9293,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9320,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9338,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,14 +9365,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9387,23 +9383,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9414,14 +9410,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,23 +9428,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9459,14 +9455,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9477,23 +9473,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9504,14 +9500,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9522,17 +9518,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9549,14 +9545,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9572,12 +9568,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9594,14 +9590,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9617,12 +9613,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9639,14 +9635,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9667,13 +9663,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9684,14 +9680,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9712,7 +9708,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9729,14 +9725,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,7 +9753,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9781,7 +9777,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,7 +9798,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9819,14 +9815,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9847,7 +9843,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9871,7 +9867,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9892,7 +9888,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9916,7 +9912,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,12 +9928,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9954,14 +9950,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,12 +9973,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9999,14 +9995,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,18 +10018,18 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10044,14 +10040,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,18 +10063,18 @@
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10089,14 +10085,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,18 +10108,18 @@
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10134,14 +10130,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,18 +10153,18 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Enable Endpoint Protection on IaaS Servers.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10179,14 +10175,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10202,12 +10198,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>For Sovereign Landing Zone, use Azure Key Vault managed HSM to store your secrets and credentials.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10224,14 +10220,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10252,7 +10248,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10269,14 +10265,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,18 +10288,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10314,14 +10310,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,12 +10333,12 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10359,14 +10355,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,12 +10378,12 @@
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>Secure privileged access</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
+          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10404,14 +10400,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,18 +10423,18 @@
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10449,14 +10445,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,18 +10468,18 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Enable Endpoint Protection on IaaS Servers.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10494,14 +10490,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10512,23 +10508,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10539,14 +10535,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10557,23 +10553,23 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10584,14 +10580,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10602,23 +10598,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
+          <t>For Sovereign Landing Zone, transparancy logs is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10629,14 +10625,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,23 +10643,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
+          <t>For Sovereign Landing Zone, customer Lockbox is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10674,14 +10670,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,23 +10688,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Include unit tests for IaC and application code as part of your build process.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10719,14 +10715,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,17 +10733,17 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10764,14 +10760,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,23 +10778,23 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Secure privileged access</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
+          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10809,14 +10805,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,23 +10823,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10854,14 +10850,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10872,23 +10868,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10899,14 +10895,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10922,18 +10918,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
+          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10944,14 +10940,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,18 +10963,18 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>Development Strategy</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
+          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10989,14 +10985,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,18 +11008,18 @@
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
+          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11034,14 +11030,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11050,135 +11046,405 @@
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="n"/>
-      <c r="B220" s="21" t="n"/>
-      <c r="C220" s="21" t="n"/>
+      <c r="A220" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B220" s="21" t="inlineStr">
+        <is>
+          <t>DevOps Team Topologies</t>
+        </is>
+      </c>
+      <c r="C220" s="21" t="inlineStr">
+        <is>
+          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
+        </is>
+      </c>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="n"/>
+      <c r="E220" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G220" s="21" t="n"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="n"/>
+      <c r="L220" s="25" t="inlineStr">
+        <is>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+        </is>
+      </c>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="n"/>
-      <c r="B221" s="21" t="n"/>
-      <c r="C221" s="21" t="n"/>
+      <c r="A221" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B221" s="21" t="inlineStr">
+        <is>
+          <t>DevOps Team Topologies</t>
+        </is>
+      </c>
+      <c r="C221" s="21" t="inlineStr">
+        <is>
+          <t>Include unit tests for IaC and application code as part of your build process.</t>
+        </is>
+      </c>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="n"/>
+      <c r="E221" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G221" s="21" t="n"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="n"/>
+      <c r="L221" s="25" t="inlineStr">
+        <is>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+        </is>
+      </c>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="n"/>
-      <c r="B222" s="21" t="n"/>
-      <c r="C222" s="21" t="n"/>
+      <c r="A222" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B222" s="21" t="inlineStr">
+        <is>
+          <t>DevOps Team Topologies</t>
+        </is>
+      </c>
+      <c r="C222" s="21" t="inlineStr">
+        <is>
+          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
+        </is>
+      </c>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="n"/>
+      <c r="E222" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G222" s="21" t="n"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="n"/>
+      <c r="L222" s="25" t="inlineStr">
+        <is>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+        </is>
+      </c>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="n"/>
-      <c r="B223" s="21" t="n"/>
-      <c r="C223" s="21" t="n"/>
+      <c r="A223" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B223" s="21" t="inlineStr">
+        <is>
+          <t>DevOps Team Topologies</t>
+        </is>
+      </c>
+      <c r="C223" s="21" t="inlineStr">
+        <is>
+          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
+        </is>
+      </c>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="n"/>
+      <c r="E223" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G223" s="21" t="n"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+        </is>
+      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="n"/>
+      <c r="L223" s="25" t="inlineStr">
+        <is>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+        </is>
+      </c>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="n"/>
-      <c r="B224" s="21" t="n"/>
-      <c r="C224" s="21" t="n"/>
+      <c r="A224" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B224" s="21" t="inlineStr">
+        <is>
+          <t>Development Lifecycle</t>
+        </is>
+      </c>
+      <c r="C224" s="21" t="inlineStr">
+        <is>
+          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
+        </is>
+      </c>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="n"/>
+      <c r="E224" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G224" s="21" t="n"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="n"/>
+      <c r="L224" s="25" t="inlineStr">
+        <is>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+        </is>
+      </c>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="n"/>
-      <c r="B225" s="21" t="n"/>
-      <c r="C225" s="21" t="n"/>
+      <c r="A225" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B225" s="21" t="inlineStr">
+        <is>
+          <t>Development Lifecycle</t>
+        </is>
+      </c>
+      <c r="C225" s="21" t="inlineStr">
+        <is>
+          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
+        </is>
+      </c>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="n"/>
+      <c r="E225" s="21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G225" s="21" t="n"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="n"/>
+      <c r="L225" s="25" t="inlineStr">
+        <is>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+        </is>
+      </c>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="n"/>
-      <c r="B226" s="21" t="n"/>
-      <c r="C226" s="21" t="n"/>
+      <c r="A226" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B226" s="21" t="inlineStr">
+        <is>
+          <t>Development Lifecycle</t>
+        </is>
+      </c>
+      <c r="C226" s="21" t="inlineStr">
+        <is>
+          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
+        </is>
+      </c>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="n"/>
+      <c r="E226" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G226" s="21" t="n"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="n"/>
+      <c r="L226" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="n"/>
-      <c r="B227" s="21" t="n"/>
-      <c r="C227" s="21" t="n"/>
+      <c r="A227" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B227" s="21" t="inlineStr">
+        <is>
+          <t>Development Strategy</t>
+        </is>
+      </c>
+      <c r="C227" s="21" t="inlineStr">
+        <is>
+          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
+        </is>
+      </c>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="n"/>
+      <c r="E227" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G227" s="21" t="n"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="n"/>
+      <c r="L227" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12365,7 +12631,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>If Azure Active Directory Domains Services (AADDS) is in use, deploy AADDS within the primary region because this service can only be projected into one subscription</t>
+          <t>When deploying Active Directory on Windows Server, use a location with Availability Zones and deploy at least two VMs across these zones. If not available, deploy in an Availability Set</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2413,7 +2413,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows server in use, are the resources in Azure using the correct domain controller?</t>
+          <t>If domain controllers are being used, ensure that resources are set to use the correct domain controller.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Configure Identity (ADDS) network segmentation through the use of a virtual Network and peer back to the hub. Providing authentication inside application landing zone (legacy).</t>
+          <t>Configure Identity network segmentation through the use of a virtual Network and peer back to the hub. Providing authentication inside application landing zone (legacy).</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Indentity management group, to host Windows Server Active Directory domain controllers</t>
+          <t>If servers will be used for Identity services, like domain controllers, establish a dedicated identity subscription in the identity management group, to host these services</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>If you are deploying at least two VMs running AD DS as domain controllers, add them to different Availability Zones. If not available in the region, deploy in an Availability Set.</t>
+          <t>If you are using a route table in the GatewaySubnet, make sure that gateway routes are propagated.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5137,7 +5137,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5145,7 +5145,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>If you are using a route table in the GatewaySubnet, make sure that gateway routes are propagated.</t>
+          <t>If using ExpressRoute, your on-premises routing should be dynamic: in the event of a connection failure it should converge to the remaining connection of the circuit. Load should be shared across both connections ideally as active/active, although active/passive is supported too.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5183,7 +5183,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5191,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute, your on-premises routing should be dynamic: in the event of a connection failure it should converge to the remaining connection of the circuit. Load should be shared across both connections ideally as active/active, although active/passive is supported too.</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,15 +5229,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,13 +5262,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,7 +5291,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,13 +5312,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5337,7 +5341,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,7 +5362,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5375,19 +5379,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,13 +5412,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5425,7 +5429,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5437,7 +5441,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,7 +5462,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5475,19 +5479,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5512,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5529,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,15 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5599,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5621,19 +5625,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5671,7 +5671,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5679,7 +5679,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,15 +5717,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5746,13 +5750,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5763,7 +5767,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5775,7 +5779,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5796,13 +5800,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,7 +5829,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5846,13 +5850,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5863,19 +5867,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5896,13 +5900,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5913,7 +5917,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5925,7 +5929,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5946,13 +5950,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5968,14 +5972,14 @@
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6000,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,19 +6017,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6046,7 +6050,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6063,19 +6067,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6095,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6112,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6120,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6141,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6167,7 +6166,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6187,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6204,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6212,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6234,7 +6233,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,14 +6250,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,7 +6278,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
+          <t>Assess and review network outbound traffic configuration and strategy before the upcoming breaking change. On September 30, 2025, default outbound access for new deployments will be retired and only explicit access configurations will be allowed</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6296,14 +6295,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6319,12 +6318,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Assess and review network outbound traffic configuration and strategy before the upcoming breaking change. On September 30, 2025, default outbound access for new deployments will be retired and only explicit access configurations will be allowed</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6341,14 +6340,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6369,13 +6373,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6386,19 +6390,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6419,7 +6423,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6441,14 +6445,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6469,7 +6473,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6491,14 +6495,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6519,7 +6523,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6548,7 +6552,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6564,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,19 +6590,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,7 +6636,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="I123" s="15" t="n"/>
@@ -6644,7 +6644,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6682,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6690,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6728,15 +6728,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6757,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6774,19 +6778,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,7 +6811,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6822,11 +6826,7 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="I127" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6836,7 +6836,7 @@
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6872,7 +6872,11 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6882,7 +6886,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6925,14 +6929,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6948,12 +6952,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6970,19 +6974,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7003,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7020,19 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7053,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7077,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7098,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7116,13 +7115,18 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7143,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7160,19 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7209,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7237,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7254,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,7 +7282,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7300,14 +7299,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7328,7 +7327,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7345,14 +7344,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7373,13 +7372,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7390,14 +7389,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,17 +7407,17 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
+          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7435,14 +7434,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7462,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
+          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7480,14 +7479,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7507,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7524,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,7 +7552,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7577,7 +7576,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7597,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7621,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,13 +7642,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7660,14 +7659,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7688,13 +7687,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7705,14 +7704,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7733,10 +7732,14 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E147" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -7750,14 +7753,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7778,14 +7781,10 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -7799,14 +7798,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7827,7 +7826,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7844,14 +7843,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>For Sovereign Landing Zone, sovereignty policy baseline' policy initiative is deployed and and assigned at correct MG level.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7889,19 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7922,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, sovereignty policy baseline' policy initiative is deployed and and assigned at correct MG level.</t>
+          <t>For Sovereign Landing Zone, sovereign Control objectives to policy mapping' is documented.</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7939,14 +7938,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7967,7 +7966,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, sovereign Control objectives to policy mapping' is documented.</t>
+          <t>For Sovereign Landing Zone, process is in place for CRUD of 'Sovereign Control objectives to policy mapping'.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7982,16 +7981,12 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
-        </is>
-      </c>
+      <c r="H152" s="15" t="n"/>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8007,18 +8002,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, process is in place for CRUD of 'Sovereign Control objectives to policy mapping'.</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8027,12 +8022,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8043,23 +8042,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8070,14 +8069,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8088,17 +8087,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
+          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8115,14 +8114,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8133,23 +8132,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
+          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8160,14 +8159,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,13 +8187,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8205,14 +8204,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8228,12 +8227,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8250,14 +8249,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8278,7 +8277,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8295,14 +8294,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8318,12 +8317,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8340,14 +8339,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8368,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8383,21 +8387,12 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H161" s="15" t="n"/>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8418,7 +8413,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8433,12 +8428,21 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="n"/>
+      <c r="H162" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8459,7 +8463,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8476,19 +8480,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8509,7 +8513,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8526,19 +8530,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8559,7 +8563,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8576,19 +8580,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8609,7 +8613,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8626,19 +8630,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8663,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,19 +8680,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8709,13 +8713,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8726,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8759,13 +8758,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8776,14 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8804,7 +8803,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8821,14 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8849,7 +8848,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8866,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8894,7 +8893,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8911,14 +8910,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8939,7 +8938,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8956,14 +8955,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8984,7 +8983,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9001,14 +9000,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9029,7 +9028,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9046,14 +9045,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9074,7 +9073,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9091,14 +9090,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9119,7 +9118,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9136,14 +9135,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9159,12 +9158,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9181,14 +9180,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9209,10 +9208,14 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9226,14 +9229,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9249,19 +9252,15 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9275,14 +9274,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,7 +9302,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9320,14 +9319,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9348,7 +9347,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9365,14 +9364,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9383,23 +9382,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9410,14 +9409,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9438,7 +9437,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9455,14 +9454,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9483,13 +9482,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9500,14 +9499,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,17 +9517,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9545,14 +9544,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9573,7 +9572,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9590,14 +9589,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,18 +9612,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9635,14 +9634,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9663,13 +9662,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9680,14 +9679,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9708,7 +9707,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9725,14 +9724,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9753,7 +9752,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9777,7 +9776,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9798,7 +9797,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9822,7 +9821,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9843,7 +9842,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9867,7 +9866,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9888,7 +9887,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9912,7 +9911,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9933,7 +9932,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9950,14 +9949,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9978,7 +9977,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9995,14 +9994,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10023,7 +10022,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10040,14 +10039,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10068,7 +10067,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10085,14 +10084,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10113,7 +10112,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10137,7 +10136,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10158,7 +10157,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>For Sovereign Landing Zone, use Azure Key Vault managed HSM to store your secrets and credentials.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10175,14 +10174,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,12 +10197,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, use Azure Key Vault managed HSM to store your secrets and credentials.</t>
+          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10220,14 +10219,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10248,7 +10247,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10265,14 +10264,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10293,13 +10292,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10310,14 +10309,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10338,7 +10337,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
+          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10355,14 +10354,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10383,7 +10382,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
+          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10400,14 +10399,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,7 +10427,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
+          <t>Enable Endpoint Protection on IaaS Servers.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10445,14 +10444,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10473,13 +10472,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Enable Endpoint Protection on IaaS Servers.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10490,14 +10489,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10535,14 +10534,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10563,7 +10562,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>For Sovereign Landing Zone, transparancy logs is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10580,14 +10579,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10608,7 +10607,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, transparancy logs is enabled on the Entra ID tenant.</t>
+          <t>For Sovereign Landing Zone, customer Lockbox is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10625,14 +10624,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10648,18 +10647,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, customer Lockbox is enabled on the Entra ID tenant.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10670,14 +10669,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10698,7 +10697,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10715,14 +10714,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10738,12 +10737,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Secure privileged access</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10760,14 +10759,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10783,18 +10782,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Secure privileged access</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10805,14 +10804,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10833,7 +10832,7 @@
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10857,7 +10856,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10868,23 +10867,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Platform Automation and DevOps</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10895,14 +10894,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10923,13 +10922,13 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
+          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10940,14 +10939,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10968,7 +10967,7 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
+          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
@@ -10992,7 +10991,7 @@
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11013,13 +11012,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
+          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11030,14 +11029,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11058,13 +11057,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
+          <t>Include unit tests for IaC and application code as part of your build process.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11075,14 +11074,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11103,13 +11102,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Include unit tests for IaC and application code as part of your build process.</t>
+          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11127,7 +11126,7 @@
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11148,13 +11147,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
+          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11165,14 +11164,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11188,18 +11187,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
+          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11210,14 +11209,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11238,13 +11237,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
+          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11255,14 +11254,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11283,13 +11282,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
+          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11307,7 +11306,7 @@
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11323,18 +11322,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>Development Strategy</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
+          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11345,14 +11344,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11368,12 +11367,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>Development Strategy</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
+          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11390,14 +11389,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11406,45 +11405,15 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>Platform Automation and DevOps</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12631,7 +12600,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>If AADDS in use, evaluate the compatibility of all workloads</t>
+          <t>If Entra Domain Services in use, evaluate the compatibility of all workloads</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>Use zone-redundant VPN gateways to connect branches or remote locations to Azure (where available).</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4870,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>Use redundant VPN appliances on-premises (active/active or active/passive).</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4887,19 +4887,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4920,13 +4920,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4937,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4949,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4987,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -4999,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the network, especially between on-premises and Azure.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5037,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5049,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the network, especially between on-premises and Azure.</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5087,7 +5087,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
@@ -5099,7 +5099,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,13 +5120,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>If you are using a route table in the GatewaySubnet, make sure that gateway routes are propagated.</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5137,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,13 +5170,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>If using ExpressRoute, your on-premises routing should be dynamic: in the event of a connection failure it should converge to the remaining connection of the circuit. Load should be shared across both connections ideally as active/active, although active/passive is supported too.</t>
+          <t>Use site-to-site VPN as failover of ExpressRoute, especially if only using a single ExpressRoute circuit.</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5183,7 +5187,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5195,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5211,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>If you are using a route table in the GatewaySubnet, make sure that gateway routes are propagated.</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,19 +5233,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5257,18 +5257,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>If using ExpressRoute, your on-premises routing should be dynamic: in the event of a connection failure it should converge to the remaining connection of the circuit. Load should be shared across both connections ideally as active/active, although active/passive is supported too.</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5279,19 +5279,15 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5312,7 +5308,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5341,7 +5337,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5362,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5379,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5412,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5429,19 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5462,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,19 +5475,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,13 +5508,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5532,12 +5528,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I100" s="15" t="n"/>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5603,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5625,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I102" s="15" t="n"/>
@@ -5633,7 +5633,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5649,18 +5649,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5671,15 +5671,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5704,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,19 +5721,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5767,19 +5767,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5800,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5817,7 +5813,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5829,7 +5825,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5850,7 +5846,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5867,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5900,7 +5896,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5917,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5967,19 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,13 +5996,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6017,19 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6050,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6067,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Premium for additional security and protection.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6112,15 +6113,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6141,7 +6146,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
+          <t>Use FQDN-based network rules and Azure Firewall with DNS proxy to filter egress traffic to the Internet over protocols not supported by application rules.</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6158,7 +6163,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6166,7 +6171,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6187,7 +6192,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
+          <t>Use Azure Firewall Premium for additional security and protection.</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6204,7 +6209,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6212,7 +6217,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6233,7 +6238,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
+          <t>Configure Azure Firewall Threat Intelligence mode to Alert and Deny for additional protection.</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6250,14 +6255,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6278,7 +6283,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Assess and review network outbound traffic configuration and strategy before the upcoming breaking change. On September 30, 2025, default outbound access for new deployments will be retired and only explicit access configurations will be allowed</t>
+          <t>Configure Azure Firewall IDPS mode to Deny for additional protection.</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6295,14 +6300,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6318,12 +6323,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
+          <t>For subnets in VNets not connected to Virtual WAN, attach a route table so that Internet traffic is redirected to Azure Firewall or a Network Virtual Appliance</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6340,19 +6345,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6368,18 +6368,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Assess and review network outbound traffic configuration and strategy before the upcoming breaking change. On September 30, 2025, default outbound access for new deployments will be retired and only explicit access configurations will be allowed</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6390,19 +6390,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,13 +6419,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Ensure that control-plane communication for Azure PaaS services injected into a virtual network is not broken, for example with a 0.0.0.0/0 route or an NSG rule that blocks control plane traffic.</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6440,19 +6436,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,7 +6469,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6495,14 +6491,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,7 +6519,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
+          <t>Access Azure PaaS services from on-premises via private endpoints and ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6545,14 +6541,14 @@
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6568,18 +6564,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6590,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6614,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Use at least a /27 prefix for your Gateway subnets</t>
+          <t>Filter egress traffic to Azure PaaS services using FQDNs instead of IP addresses in Azure Firewall or an NVA to prevent data exfiltration. If using Private Link you can block all FQDNs, otherwise allow only the required PaaS services.</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6636,15 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6669,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
+          <t>Use a /26 prefix for your Azure Firewall subnets.</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6686,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6694,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,13 +6715,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>Use at least a /27 prefix for your Gateway subnets</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6728,19 +6732,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>Don't rely on the NSG inbound default rules using the VirtualNetwork service tag to limit connectivity.</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6778,19 +6778,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6811,7 +6806,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6826,17 +6821,21 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6856,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6874,7 +6873,7 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6886,7 +6885,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6907,7 +6906,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6922,21 +6921,17 @@
         </is>
       </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6952,12 +6947,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6974,19 +6969,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7002,12 +6997,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Enable VNet Flow Logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7024,14 +7019,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7052,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7069,14 +7069,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7097,7 +7102,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7115,18 +7120,13 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,13 +7147,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,14 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall in secured hubs</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7209,14 +7209,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7237,7 +7242,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7254,14 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7282,7 +7287,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7299,14 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7327,7 +7332,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
+          <t>Make sure that your IaC deployments does not disable branch-to-branch traffic in Virtual WAN, unless these flows should be explicitly blocked.</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7344,14 +7349,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,13 +7377,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
+          <t>Use AS-Path as hub routing preference, since it is more flexible than ExpressRoute or VPN.</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7389,14 +7394,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7407,23 +7412,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
+          <t>Make sure that your IaC deployments are configuring label-based propagation in Virtual WAN, otherwise connectivity between virtual hubs will be impaired.</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7434,14 +7439,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7452,23 +7457,23 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
+          <t>Assign enough IP space to virtual hubs, ideally a /23 prefix.</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7479,14 +7484,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7507,13 +7512,13 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy strategically, define controls for your environment, using Policy Initiatives to group related policies.</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7531,7 +7536,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7552,7 +7557,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7569,14 +7574,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7597,7 +7602,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7621,7 +7626,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7642,13 +7647,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7659,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7687,7 +7692,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7711,7 +7716,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7732,17 +7737,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7753,14 +7754,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7781,7 +7782,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7805,7 +7806,7 @@
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7826,10 +7827,14 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
-        </is>
-      </c>
-      <c r="D149" s="21" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="E149" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -7843,19 +7848,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, sovereignty policy baseline' policy initiative is deployed and and assigned at correct MG level.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7893,14 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, sovereign Control objectives to policy mapping' is documented.</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7938,14 +7938,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7966,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, process is in place for CRUD of 'Sovereign Control objectives to policy mapping'.</t>
+          <t>For Sovereign Landing Zone, sovereignty policy baseline' policy initiative is deployed and and assigned at correct MG level.</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7981,12 +7986,16 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,18 +8011,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>Optimize your cloud investment</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>For Sovereign Landing Zone, sovereign Control objectives to policy mapping' is documented.</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8024,14 +8033,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8042,17 +8051,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>Scalability</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
+          <t>For Sovereign Landing Zone, process is in place for CRUD of 'Sovereign Control objectives to policy mapping'.</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8067,16 +8076,12 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
-        </is>
-      </c>
+      <c r="H154" s="15" t="n"/>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,13 +8102,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
+          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8114,14 +8119,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8132,23 +8137,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Scalability</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8159,14 +8164,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8177,17 +8182,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>Management</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Optimize your cloud investment</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
+          <t>Configure 'Actual' and 'Forecasted' Budget Alerts.</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8204,14 +8209,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8227,18 +8232,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
+          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8249,14 +8254,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8272,12 +8277,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>Data Protection</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8294,14 +8299,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8322,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Consider cross-region replication in Azure for BCDR with paired regions</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8344,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Data Protection</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8387,12 +8387,16 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="n"/>
+      <c r="H161" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8413,7 +8417,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8430,19 +8434,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Ensure that the landing zone is documented.</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8478,21 +8482,12 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="H163" s="15" t="n"/>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8513,7 +8508,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8530,19 +8525,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8563,7 +8558,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8580,19 +8575,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,7 +8608,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8630,19 +8625,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8663,7 +8658,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8680,19 +8675,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8713,13 +8708,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8730,14 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8803,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8848,7 +8853,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8865,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8893,7 +8898,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8910,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,7 +8943,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8955,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,7 +8988,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9000,14 +9005,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,7 +9033,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9045,14 +9050,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,7 +9078,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9090,14 +9095,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,7 +9123,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9135,14 +9140,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9158,12 +9163,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9180,14 +9185,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9203,19 +9208,15 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9229,14 +9230,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,12 +9253,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9274,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,15 +9298,19 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9319,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9364,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9382,23 +9387,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9409,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9427,23 +9432,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9454,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,13 +9487,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9499,14 +9504,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9517,23 +9522,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9544,14 +9549,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9562,17 +9567,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9589,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,18 +9617,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9634,14 +9639,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9657,12 +9662,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9679,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,13 +9712,13 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9724,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9752,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9769,14 +9774,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9797,7 +9802,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9821,7 +9826,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9842,7 +9847,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9866,7 +9871,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9887,7 +9892,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9911,7 +9916,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,7 +9937,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9949,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,7 +9982,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10001,7 +10006,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10039,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,7 +10072,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10091,7 +10096,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,7 +10117,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10129,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,7 +10162,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, use Azure Key Vault managed HSM to store your secrets and credentials.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10174,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10197,12 +10202,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10219,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10242,12 +10247,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>For Sovereign Landing Zone, use Azure Key Vault managed HSM to store your secrets and credentials.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10264,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,13 +10297,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
+          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10309,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,13 +10342,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10354,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,7 +10387,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
+          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10399,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,7 +10432,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Enable Endpoint Protection on IaaS Servers.</t>
+          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10444,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,13 +10477,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10489,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10517,13 +10522,13 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Endpoint Protection on IaaS Servers.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10534,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10562,7 +10567,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, transparancy logs is enabled on the Entra ID tenant.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10579,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10607,7 +10612,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, customer Lockbox is enabled on the Entra ID tenant.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10624,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,18 +10652,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>For Sovereign Landing Zone, transparancy logs is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10669,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>For Sovereign Landing Zone, customer Lockbox is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10714,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,12 +10742,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Secure privileged access</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10759,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10804,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,18 +10832,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>Secure privileged access</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10849,14 +10854,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10867,23 +10872,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10894,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10912,23 +10917,23 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10939,14 +10944,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,13 +10972,13 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
+          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10984,14 +10989,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,13 +11017,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
+          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11029,14 +11034,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11057,13 +11062,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Include unit tests for IaC and application code as part of your build process.</t>
+          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11074,14 +11079,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11102,7 +11107,7 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
+          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11119,14 +11124,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11147,13 +11152,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
+          <t>Include unit tests for IaC and application code as part of your build process.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11164,14 +11169,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11187,12 +11192,12 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
+          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
@@ -11209,14 +11214,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11232,12 +11237,12 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
+          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11254,14 +11259,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11282,13 +11287,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
+          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11299,14 +11304,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11322,18 +11327,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>Development Strategy</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
+          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11344,14 +11349,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11367,18 +11372,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Development Lifecycle</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
+          <t>Adopt a pull request strategy to help keep control of code changes merged into branches.</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11389,14 +11394,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11405,30 +11410,90 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>Development Strategy</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>Leverage Declarative Infrastructure as Code Tools such as Azure Bicep, ARM Templates or Terraform to build and maintain your Azure Landing Zone architecture. Both from a Platform and Application workload perspective.</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="n"/>
-      <c r="B229" s="21" t="n"/>
-      <c r="C229" s="21" t="n"/>
+      <c r="A229" s="21" t="inlineStr">
+        <is>
+          <t>Platform Automation and DevOps</t>
+        </is>
+      </c>
+      <c r="B229" s="21" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C229" s="21" t="inlineStr">
+        <is>
+          <t>Integrate security into the already combined process of development and operations in DevOps to mitigate risks in the innovation process.</t>
+        </is>
+      </c>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="n"/>
+      <c r="E229" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G229" s="21" t="n"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="n"/>
+      <c r="L229" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
@@ -12600,7 +12665,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F230" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.en.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.en.xlsx
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>When deploying an AD Connect VM, consider having a staging sever for high availability / Disaster recovery</t>
+          <t>When deploying an Microsoft Entra Connect, leverage a staging sever for high availability / Disaster recovery</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Consider using Azure custom roles for the following key roles: Azure platform owner, network management, security operations, subscription owner, application owner</t>
+          <t>Use Azure custom RBAC roles for the following key roles to provide fine-grain access across your ALZ: Azure platform owner, network management, security operations, subscription owner, application owner. Align these roles to teams and responsibilities within your business.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Consider using Microsoft Entra ID Application Proxy as a VPN or reverse proxy replacement to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
+          <t>Where required, use Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+          <t>Leverage a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t xml:space="preserve">Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in Azure. </t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8675,12 +8675,12 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
@@ -8703,12 +8703,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in outside of Azure using Azure Arc. </t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8725,19 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,19 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8825,14 +8825,19 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,13 +8858,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8870,14 +8875,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8898,7 +8903,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8915,14 +8920,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8943,7 +8948,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,14 +8965,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8988,7 +8993,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9005,14 +9010,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9033,7 +9038,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9050,14 +9055,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9078,7 +9083,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9095,14 +9100,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9123,7 +9128,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9140,14 +9145,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9168,7 +9173,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9185,14 +9190,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9213,7 +9218,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Consider supported regions for linked Log Analytics workspace and automation accounts</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9230,14 +9235,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9253,12 +9258,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>Operational compliance</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>When using Change and Inventory Tracking via Azure Automation Accounts, ensure that you have selected supported regions for linking your Log Analytics workspace and automation accounts together.</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9275,14 +9280,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,14 +9308,10 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9324,14 +9325,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,15 +9348,19 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>Protect and Recover</t>
+          <t>Operational compliance</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
-        </is>
-      </c>
-      <c r="D182" s="21" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D182" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="E182" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -9369,14 +9374,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9397,7 +9402,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9414,14 +9419,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9442,7 +9447,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9459,14 +9464,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9477,23 +9482,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Management </t>
+          <t>Management</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>Fault Tolerance</t>
+          <t>Protect and Recover</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9504,14 +9509,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,7 +9537,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9549,14 +9554,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9577,13 +9582,13 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
       <c r="E187" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9594,14 +9599,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,17 +9617,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t xml:space="preserve">Management </t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Fault Tolerance</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9639,14 +9644,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9667,7 +9672,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9684,14 +9689,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,18 +9712,18 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>Encryption and keys</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9729,14 +9734,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,13 +9762,13 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9774,14 +9779,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,7 +9807,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9819,14 +9824,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9847,7 +9852,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9871,7 +9876,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9892,7 +9897,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9916,7 +9921,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9937,7 +9942,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9961,7 +9966,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9982,7 +9987,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10006,7 +10011,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10027,7 +10032,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10044,14 +10049,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10072,7 +10077,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10089,14 +10094,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10117,7 +10122,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10134,14 +10139,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10162,7 +10167,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10179,14 +10184,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10207,7 +10212,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10231,7 +10236,7 @@
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10252,7 +10257,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, use Azure Key Vault managed HSM to store your secrets and credentials.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10269,14 +10274,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,12 +10297,12 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Encryption and keys</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
+          <t>For Sovereign Landing Zone, use Azure Key Vault managed HSM to store your secrets and credentials.</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10314,14 +10319,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10342,7 +10347,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10359,14 +10364,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10387,13 +10392,13 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10404,14 +10409,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10432,7 +10437,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
+          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10449,14 +10454,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10477,7 +10482,7 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
+          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10494,14 +10499,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10522,7 +10527,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Enable Endpoint Protection on IaaS Servers.</t>
+          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10539,14 +10544,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10567,13 +10572,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Enable Endpoint Protection on IaaS Servers.</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10584,14 +10589,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10612,7 +10617,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10629,14 +10634,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10657,7 +10662,7 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, transparancy logs is enabled on the Entra ID tenant.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10674,14 +10679,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10702,7 +10707,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, customer Lockbox is enabled on the Entra ID tenant.</t>
+          <t>For Sovereign Landing Zone, transparancy logs is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10719,14 +10724,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10742,18 +10747,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>For Sovereign Landing Zone, customer Lockbox is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10764,14 +10769,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10792,7 +10797,7 @@
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10809,14 +10814,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10832,12 +10837,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>Secure privileged access</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10854,14 +10859,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10877,18 +10882,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>Service enablement framework</t>
+          <t>Secure privileged access</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Separate privileged admin accounts for Azure administrative tasks.</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10899,14 +10904,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10927,7 +10932,7 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Plan how new azure services will be implemented</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10951,7 +10956,7 @@
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10962,23 +10967,23 @@
     <row r="218">
       <c r="A218" s="21" t="inlineStr">
         <is>
-          <t>Platform Automation and DevOps</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>DevOps Team Topologies</t>
+          <t>Service enablement framework</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
+          <t>Plan how service request will be fulfilled for Azure services</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10989,14 +10994,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11017,13 +11022,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
+          <t>Ensure you have a cross functional DevOps Platform Team to build, manage and maintain your Azure Landing Zone architecture.</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11034,14 +11039,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11062,7 +11067,7 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
+          <t>Aim to define functions for Azure Landing Zone Platform team.</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11086,7 +11091,7 @@
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11107,13 +11112,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
+          <t>Aim to define functions for application workload teams to be self-sufficient and not require DevOps Platform Team support. Achieve this through the use of custom RBAC role.</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11124,14 +11129,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11152,13 +11157,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Include unit tests for IaC and application code as part of your build process.</t>
+          <t>Use a CI/CD pipeline to deploy IaC artifacts and ensure the quality of your deployment and Azure environments.</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11169,14 +11174,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11197,13 +11202,13 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
+          <t>Include unit tests for IaC and application code as part of your build process.</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11221,7 +11226,7 @@
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11242,13 +11247,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
+          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11259,14 +11264,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11282,18 +11287,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>Development Lifecycle</t>
+          <t>DevOps Team Topologies</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
+          <t>Implement automation for File &gt; New &gt; Landing Zone for applications and workloads.</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11304,14 +11309,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11332,13 +11337,13 @@
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Follow a branching strategy to allow teams to collaborate better and efficiently manage version control of IaC and application Code. Review options such as Github Flow.</t>
+          <t>Ensure a version control system is used for source code of applications and IaC developed. Microsoft recommends Git.</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11349,14 +11354,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
- 